--- a/output/경기대로_가을_배출량/경기대로_가을_배출량_CO.xlsx
+++ b/output/경기대로_가을_배출량/경기대로_가을_배출량_CO.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_CO</t>
+  </si>
+  <si>
+    <t>02_taxi_CO</t>
+  </si>
+  <si>
+    <t>03_van_CO</t>
+  </si>
+  <si>
+    <t>04_bus_CO</t>
+  </si>
+  <si>
+    <t>05_LightTruck_CO</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_CO</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_CO</t>
+  </si>
+  <si>
+    <t>Total_CO (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1308 +397,1432 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_CO</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_CO</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_CO</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_CO</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_CO</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_CO</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total_CO (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>2024101513</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>575.9686211354964</v>
       </c>
-      <c r="C2" t="n">
-        <v>1.610922583767668</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2">
+        <v>7.286969226768687</v>
+      </c>
+      <c r="D2">
         <v>59.28151082533676</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
+        <v>13.30912985260969</v>
+      </c>
+      <c r="F2">
         <v>20.09231342420516</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2">
         <v>70.44590927382556</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2">
         <v>8.983929093358153</v>
       </c>
-      <c r="H2" t="n">
-        <v>736.3832063359897</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="I2">
+        <v>755.3683828316003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2024101514</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>594.8718109785233</v>
       </c>
-      <c r="C3" t="n">
-        <v>1.7787270195768</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3">
+        <v>8.046028521223757</v>
+      </c>
+      <c r="D3">
         <v>60.20778443198266</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
+        <v>13.30912985260969</v>
+      </c>
+      <c r="F3">
         <v>19.39258111589951</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3">
         <v>55.94233971744973</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3">
         <v>8.292857624638298</v>
       </c>
-      <c r="H3" t="n">
-        <v>740.4861008880702</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="I3">
+        <v>760.0625322423268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>2024101515</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>602.5873986695552</v>
       </c>
-      <c r="C4" t="n">
-        <v>1.644483470929494</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="C4">
+        <v>7.438781085659699</v>
+      </c>
+      <c r="D4">
         <v>61.13405803862852</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
+        <v>12.56973374968694</v>
+      </c>
+      <c r="F4">
         <v>18.09307825761757</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4">
         <v>55.94233971744973</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4">
         <v>7.601786155918439</v>
       </c>
-      <c r="H4" t="n">
-        <v>747.0031443100989</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="I4">
+        <v>765.3671756745161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>2024101516</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>651.5813805076044</v>
       </c>
-      <c r="C5" t="n">
-        <v>1.375996373634883</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C5">
+        <v>6.224286214531584</v>
+      </c>
+      <c r="D5">
         <v>63.91287885856622</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
+        <v>21.44248698476007</v>
+      </c>
+      <c r="F5">
         <v>17.79319298262945</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5">
         <v>53.87040120939602</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5">
         <v>6.910714687198581</v>
       </c>
-      <c r="H5" t="n">
-        <v>795.4445646190296</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="I5">
+        <v>821.7353414446865</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>2024101517</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>743.7826534154296</v>
       </c>
-      <c r="C6" t="n">
-        <v>1.30887459931123</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C6">
+        <v>5.920662496749555</v>
+      </c>
+      <c r="D6">
         <v>58.35523721869089</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
+        <v>47.32135058705672</v>
+      </c>
+      <c r="F6">
         <v>14.99426374940683</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6">
         <v>26.93520060469801</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6">
         <v>6.219643218478722</v>
       </c>
-      <c r="H6" t="n">
-        <v>851.5958728060153</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="I6">
+        <v>903.5290112905103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>2024101518</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>793.9339734071342</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.5034133074273962</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="C7">
+        <v>2.277177883365214</v>
+      </c>
+      <c r="D7">
         <v>39.82976508577313</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
+        <v>49.53953889582499</v>
+      </c>
+      <c r="F7">
         <v>9.696290557949753</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7">
         <v>26.93520060469801</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7">
         <v>6.910714687198581</v>
       </c>
-      <c r="H7" t="n">
-        <v>877.8093576501811</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="I7">
+        <v>929.1226611219439</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>2024101519</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>604.1305162077613</v>
       </c>
-      <c r="C8" t="n">
-        <v>0.6376568560747018</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="C8">
+        <v>2.884425318929271</v>
+      </c>
+      <c r="D8">
         <v>54.65014279210735</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
+        <v>29.57584411691044</v>
+      </c>
+      <c r="F8">
         <v>7.197246599715281</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8">
         <v>24.86326209664431</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8">
         <v>1.382142937439717</v>
       </c>
-      <c r="H8" t="n">
-        <v>692.8609674897427</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="I8">
+        <v>724.6835800695077</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>2024101520</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>481.0668925358098</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.6712177432365283</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="C9">
+        <v>3.036237177820285</v>
+      </c>
+      <c r="D9">
         <v>34.27212344589782</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
+        <v>56.19410382212982</v>
+      </c>
+      <c r="F9">
         <v>3.298738024869503</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9">
         <v>29.00713911275169</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9">
         <v>2.073214406159575</v>
       </c>
-      <c r="H9" t="n">
-        <v>550.3893252687249</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="I9">
+        <v>608.9484485254384</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>2024101521</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>398.5101042417735</v>
       </c>
-      <c r="C10" t="n">
-        <v>0.3356088716182641</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="C10">
+        <v>1.518118588910143</v>
+      </c>
+      <c r="D10">
         <v>28.7144818060225</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
+        <v>28.09705191106491</v>
+      </c>
+      <c r="F10">
         <v>3.098814508210746</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10">
         <v>35.22295463691278</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10">
         <v>0.6910714687198584</v>
       </c>
-      <c r="H10" t="n">
-        <v>466.5730355332577</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="I10">
+        <v>495.8525971616145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>2024101522</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>283.1620682608536</v>
       </c>
-      <c r="C11" t="n">
-        <v>0.6712177432365283</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="C11">
+        <v>3.036237177820285</v>
+      </c>
+      <c r="D11">
         <v>14.82037770633419</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
+        <v>13.30912985260969</v>
+      </c>
+      <c r="F11">
         <v>3.398699783198882</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11">
         <v>24.86326209664431</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11">
         <v>2.764285874879433</v>
       </c>
-      <c r="H11" t="n">
-        <v>329.6799114651469</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="I11">
+        <v>345.3540607523404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>2024101523</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>173.9865024327588</v>
       </c>
-      <c r="C12" t="n">
-        <v>0.6712177432365283</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="C12">
+        <v>3.036237177820285</v>
+      </c>
+      <c r="D12">
         <v>8.33646245981298</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
+        <v>6.654564926304847</v>
+      </c>
+      <c r="F12">
         <v>1.899273408258199</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12">
         <v>18.64744657248324</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12">
         <v>1.382142937439717</v>
       </c>
-      <c r="H12" t="n">
-        <v>204.9230455539895</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="I12">
+        <v>213.9426299148781</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>2024101600</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>123.4494030565029</v>
       </c>
-      <c r="C13" t="n">
-        <v>1.006826614854792</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="C13">
+        <v>4.554355766730428</v>
+      </c>
+      <c r="D13">
         <v>9.262736066458869</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
+        <v>4.436376617536567</v>
+      </c>
+      <c r="F13">
         <v>1.999235166587578</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13">
         <v>22.79132358859062</v>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>158.5095244929947</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="I13">
+        <v>166.493430262407</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
         <v>2024101601</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>81.39945014038162</v>
       </c>
-      <c r="C14" t="n">
-        <v>1.073948389178445</v>
-      </c>
-      <c r="D14" t="n">
+      <c r="C14">
+        <v>4.857979484512456</v>
+      </c>
+      <c r="D14">
         <v>5.557641639875323</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
+        <v>2.218188308768283</v>
+      </c>
+      <c r="F14">
         <v>2.199158683246337</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14">
         <v>33.15101612885908</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14">
         <v>0.6910714687198584</v>
       </c>
-      <c r="H14" t="n">
-        <v>124.0722864502607</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="I14">
+        <v>130.074505854363</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>2024101602</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>62.11048091280301</v>
       </c>
-      <c r="C15" t="n">
-        <v>0.8054612918838339</v>
-      </c>
-      <c r="D15" t="n">
+      <c r="C15">
+        <v>3.643484613384343</v>
+      </c>
+      <c r="D15">
         <v>10.18900967310475</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
+        <v>2.957584411691045</v>
+      </c>
+      <c r="F15">
         <v>1.699349891599441</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15">
         <v>29.00713911275169</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15">
         <v>1.382142937439717</v>
       </c>
-      <c r="H15" t="n">
-        <v>105.1935838195824</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="I15">
+        <v>110.989191552774</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>2024101603</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>56.70956952908099</v>
       </c>
-      <c r="C16" t="n">
-        <v>0.3020479844564378</v>
-      </c>
-      <c r="D16" t="n">
+      <c r="C16">
+        <v>1.366306730019128</v>
+      </c>
+      <c r="D16">
         <v>12.04155688639653</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
+        <v>2.218188308768283</v>
+      </c>
+      <c r="F16">
         <v>1.599388133270062</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16">
         <v>24.86326209664431</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16">
         <v>0.6910714687198584</v>
       </c>
-      <c r="H16" t="n">
-        <v>96.20689609856819</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="I16">
+        <v>99.48934315289915</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>2024101604</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>114.1906978272652</v>
       </c>
-      <c r="C17" t="n">
-        <v>0.4362915331037434</v>
-      </c>
-      <c r="D17" t="n">
+      <c r="C17">
+        <v>1.973554165583186</v>
+      </c>
+      <c r="D17">
         <v>18.52547213291774</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
+        <v>2.218188308768283</v>
+      </c>
+      <c r="F17">
         <v>3.698585058187021</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17">
         <v>37.29489314496649</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17">
         <v>2.073214406159575</v>
       </c>
-      <c r="H17" t="n">
-        <v>176.2191541025997</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="I17">
+        <v>179.9746050438474</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>2024101605</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>251.5281587276247</v>
       </c>
-      <c r="C18" t="n">
-        <v>0.2684870972946113</v>
-      </c>
-      <c r="D18" t="n">
+      <c r="C18">
+        <v>1.214494871128114</v>
+      </c>
+      <c r="D18">
         <v>29.64075541266838</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
+        <v>35.49101294029253</v>
+      </c>
+      <c r="F18">
         <v>8.496749457997202</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18">
         <v>68.37397076577189</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18">
         <v>2.073214406159575</v>
       </c>
-      <c r="H18" t="n">
-        <v>360.3813358675164</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="I18">
+        <v>396.8183565816425</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>2024101606</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>442.874733465204</v>
       </c>
-      <c r="C19" t="n">
-        <v>0.4698524202655698</v>
-      </c>
-      <c r="D19" t="n">
+      <c r="C19">
+        <v>2.1253660244742</v>
+      </c>
+      <c r="D19">
         <v>54.65014279210735</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
+        <v>73.20021418935335</v>
+      </c>
+      <c r="F19">
         <v>14.39449319943056</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19">
         <v>122.2443719751679</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19">
         <v>6.910714687198581</v>
       </c>
-      <c r="H19" t="n">
-        <v>641.544308539374</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="I19">
+        <v>716.400036332936</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>2024101607</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>599.8869429776937</v>
       </c>
-      <c r="C20" t="n">
-        <v>0.5034133074273962</v>
-      </c>
-      <c r="D20" t="n">
+      <c r="C20">
+        <v>2.277177883365214</v>
+      </c>
+      <c r="D20">
         <v>48.16622754558612</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
+        <v>63.58806485135745</v>
+      </c>
+      <c r="F20">
         <v>13.99464616611304</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20">
         <v>105.6688639107384</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20">
         <v>6.910714687198581</v>
       </c>
-      <c r="H20" t="n">
-        <v>775.1308085947572</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="I20">
+        <v>840.4926380220525</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>2024101608</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>475.6659811520876</v>
       </c>
-      <c r="C21" t="n">
-        <v>0.5369741945892226</v>
-      </c>
-      <c r="D21" t="n">
+      <c r="C21">
+        <v>2.428989742256228</v>
+      </c>
+      <c r="D21">
         <v>24.08311377279306</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
+        <v>26.61825970521939</v>
+      </c>
+      <c r="F21">
         <v>10.99579341623167</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21">
         <v>76.66172479798662</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21">
         <v>2.764285874879433</v>
       </c>
-      <c r="H21" t="n">
-        <v>590.7078732085677</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="I21">
+        <v>619.218148461454</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>2024101609</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>563.2379014452945</v>
       </c>
-      <c r="C22" t="n">
-        <v>1.678044358091321</v>
-      </c>
-      <c r="D22" t="n">
+      <c r="C22">
+        <v>7.590592944550714</v>
+      </c>
+      <c r="D22">
         <v>75.02816213831686</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
+        <v>27.35765580814215</v>
+      </c>
+      <c r="F22">
         <v>20.79204573251081</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22">
         <v>138.8198800395975</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22">
         <v>2.764285874879433</v>
       </c>
-      <c r="H22" t="n">
-        <v>802.3203195886904</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="I22">
+        <v>835.5905239832919</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>2024101610</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>506.142552531662</v>
       </c>
-      <c r="C23" t="n">
-        <v>1.745166132414973</v>
-      </c>
-      <c r="D23" t="n">
+      <c r="C23">
+        <v>7.894216662332743</v>
+      </c>
+      <c r="D23">
         <v>61.13405803862852</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
+        <v>17.00611036722351</v>
+      </c>
+      <c r="F23">
         <v>22.49139562411025</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23">
         <v>105.6688639107384</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23">
         <v>3.455357343599291</v>
       </c>
-      <c r="H23" t="n">
-        <v>700.6373935811534</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="I23">
+        <v>723.7925544782947</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
         <v>2024101611</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>531.218212527514</v>
       </c>
-      <c r="C24" t="n">
-        <v>1.745166132414973</v>
-      </c>
-      <c r="D24" t="n">
+      <c r="C24">
+        <v>7.894216662332743</v>
+      </c>
+      <c r="D24">
         <v>54.65014279210735</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
+        <v>16.26671426430075</v>
+      </c>
+      <c r="F24">
         <v>20.99196924916957</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24">
         <v>93.23723286241621</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24">
         <v>6.910714687198581</v>
       </c>
-      <c r="H24" t="n">
-        <v>708.7534382508206</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="I24">
+        <v>731.1692030450391</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>2024101612</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>535.8475651421328</v>
       </c>
-      <c r="C25" t="n">
-        <v>1.342435486473057</v>
-      </c>
-      <c r="D25" t="n">
+      <c r="C25">
+        <v>6.07247435564057</v>
+      </c>
+      <c r="D25">
         <v>57.428963612045</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
+        <v>15.52731816137798</v>
+      </c>
+      <c r="F25">
         <v>16.59365188267689</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25">
         <v>87.02141733825508</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25">
         <v>4.837500281039007</v>
       </c>
-      <c r="H25" t="n">
-        <v>703.0715337426218</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="I25">
+        <v>723.3288907731672</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
         <v>2024101613</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>551.2787405241961</v>
       </c>
-      <c r="C26" t="n">
-        <v>1.443118147958535</v>
-      </c>
-      <c r="D26" t="n">
+      <c r="C26">
+        <v>6.527909932313612</v>
+      </c>
+      <c r="D26">
         <v>50.9450483655238</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
+        <v>8.872753235073134</v>
+      </c>
+      <c r="F26">
         <v>21.19189276582832</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26">
         <v>116.0285564510068</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26">
         <v>5.528571749758867</v>
       </c>
-      <c r="H26" t="n">
-        <v>746.4159280042725</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="I26">
+        <v>760.3734730237006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
         <v>2024101614</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>578.669076827357</v>
       </c>
-      <c r="C27" t="n">
-        <v>1.141070163502098</v>
-      </c>
-      <c r="D27" t="n">
+      <c r="C27">
+        <v>5.161603202294486</v>
+      </c>
+      <c r="D27">
         <v>71.32306771173329</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
+        <v>17.74550647014627</v>
+      </c>
+      <c r="F27">
         <v>17.79319298262945</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27">
         <v>45.58264717718124</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27">
         <v>4.837500281039007</v>
       </c>
-      <c r="H27" t="n">
-        <v>719.3465551434421</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="I27">
+        <v>741.1125946523807</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
         <v>2024101615</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>560.151666368882</v>
       </c>
-      <c r="C28" t="n">
-        <v>1.745166132414973</v>
-      </c>
-      <c r="D28" t="n">
+      <c r="C28">
+        <v>7.894216662332743</v>
+      </c>
+      <c r="D28">
         <v>70.39679410508742</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
+        <v>16.26671426430075</v>
+      </c>
+      <c r="F28">
         <v>16.79357539933566</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28">
         <v>93.23723286241621</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28">
         <v>11.05714349951773</v>
       </c>
-      <c r="H28" t="n">
-        <v>753.381578367654</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="I28">
+        <v>775.7973431618725</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
         <v>2024101616</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>616.08967712886</v>
       </c>
-      <c r="C29" t="n">
-        <v>1.510239922282189</v>
-      </c>
-      <c r="D29" t="n">
+      <c r="C29">
+        <v>6.831533650095641</v>
+      </c>
+      <c r="D29">
         <v>68.54424689179564</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
+        <v>21.44248698476007</v>
+      </c>
+      <c r="F29">
         <v>16.69361364100628</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29">
         <v>55.94233971744973</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29">
         <v>17.27678671799645</v>
       </c>
-      <c r="H29" t="n">
-        <v>776.0569040193902</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="I29">
+        <v>802.8206847319638</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
         <v>2024101617</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>771.9445484876945</v>
       </c>
-      <c r="C30" t="n">
-        <v>0.738339517560181</v>
-      </c>
-      <c r="D30" t="n">
+      <c r="C30">
+        <v>3.339860895602314</v>
+      </c>
+      <c r="D30">
         <v>43.53485951235669</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
+        <v>35.49101294029253</v>
+      </c>
+      <c r="F30">
         <v>14.49445495775994</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30">
         <v>43.51070866912754</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30">
         <v>8.983929093358153</v>
       </c>
-      <c r="H30" t="n">
-        <v>883.206840237857</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="I30">
+        <v>921.2993745561917</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
         <v>2024101618</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>803.1926786363721</v>
       </c>
-      <c r="C31" t="n">
-        <v>0.9732657276929659</v>
-      </c>
-      <c r="D31" t="n">
+      <c r="C31">
+        <v>4.402543907839414</v>
+      </c>
+      <c r="D31">
         <v>54.65014279210735</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
+        <v>51.75772720459326</v>
+      </c>
+      <c r="F31">
         <v>11.09575517456105</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31">
         <v>39.36683165302017</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31">
         <v>2.764285874879433</v>
       </c>
-      <c r="H31" t="n">
-        <v>912.042959858633</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="I31">
+        <v>967.2299652433728</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
         <v>2024101619</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>635.3786463564384</v>
       </c>
-      <c r="C32" t="n">
-        <v>0.7047786303983548</v>
-      </c>
-      <c r="D32" t="n">
+      <c r="C32">
+        <v>3.1880490367113</v>
+      </c>
+      <c r="D32">
         <v>46.31368033229436</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
+        <v>34.75161683736977</v>
+      </c>
+      <c r="F32">
         <v>7.797017149691553</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32">
         <v>31.07907762080539</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32">
         <v>6.219643218478722</v>
       </c>
-      <c r="H32" t="n">
-        <v>727.4928433081067</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="I32">
+        <v>764.7277305517894</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
         <v>2024101620</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>531.9897712966172</v>
       </c>
-      <c r="C33" t="n">
-        <v>1.006826614854792</v>
-      </c>
-      <c r="D33" t="n">
+      <c r="C33">
+        <v>4.554355766730428</v>
+      </c>
+      <c r="D33">
         <v>36.12467065918957</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
+        <v>47.32135058705672</v>
+      </c>
+      <c r="F33">
         <v>4.998087916468944</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33">
         <v>33.15101612885908</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33">
         <v>0.6910714687198584</v>
       </c>
-      <c r="H33" t="n">
-        <v>607.9614440847095</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="I33">
+        <v>658.8303238236417</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
         <v>2024101621</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>437.0880426969304</v>
       </c>
-      <c r="C34" t="n">
-        <v>0.6712177432365283</v>
-      </c>
-      <c r="D34" t="n">
+      <c r="C34">
+        <v>3.036237177820285</v>
+      </c>
+      <c r="D34">
         <v>24.08311377279306</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
+        <v>22.9212791906056</v>
+      </c>
+      <c r="F34">
         <v>3.198776266540124</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34">
         <v>16.57550806442954</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34">
         <v>2.764285874879433</v>
       </c>
-      <c r="H34" t="n">
-        <v>484.3809444188091</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="I34">
+        <v>509.6672430439984</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
         <v>2024101622</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>309.0092870258088</v>
       </c>
-      <c r="C35" t="n">
-        <v>0.6376568560747018</v>
-      </c>
-      <c r="D35" t="n">
+      <c r="C35">
+        <v>2.884425318929271</v>
+      </c>
+      <c r="D35">
         <v>23.15684016614718</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
+        <v>12.56973374968694</v>
+      </c>
+      <c r="F35">
         <v>2.399082199905092</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35">
         <v>26.93520060469801</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35">
         <v>0.6910714687198584</v>
       </c>
-      <c r="H35" t="n">
-        <v>362.8291383213536</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="I35">
+        <v>377.6456405338951</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
         <v>2024101623</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>194.432809813992</v>
       </c>
-      <c r="C36" t="n">
-        <v>1.174631050663924</v>
-      </c>
-      <c r="D36" t="n">
+      <c r="C36">
+        <v>5.313415061185499</v>
+      </c>
+      <c r="D36">
         <v>9.262736066458869</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
+        <v>6.654564926304847</v>
+      </c>
+      <c r="F36">
         <v>1.999235166587578</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36">
         <v>18.64744657248324</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36">
         <v>0.6910714687198584</v>
       </c>
-      <c r="H36" t="n">
-        <v>226.2079301389055</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="I36">
+        <v>237.0012790757319</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>2024101700</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>147.7535042832519</v>
       </c>
-      <c r="C37" t="n">
-        <v>1.40955726079671</v>
-      </c>
-      <c r="D37" t="n">
+      <c r="C37">
+        <v>6.3760980734226</v>
+      </c>
+      <c r="D37">
         <v>9.262736066458869</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
+        <v>2.957584411691045</v>
+      </c>
+      <c r="F37">
         <v>1.699349891599441</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37">
         <v>20.71938508053693</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37">
         <v>2.764285874879433</v>
       </c>
-      <c r="H37" t="n">
-        <v>183.6088184575233</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="I37">
+        <v>191.5329436818402</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
         <v>2024101701</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>82.94256767858788</v>
       </c>
-      <c r="C38" t="n">
-        <v>0.9732657276929659</v>
-      </c>
-      <c r="D38" t="n">
+      <c r="C38">
+        <v>4.402543907839414</v>
+      </c>
+      <c r="D38">
         <v>7.410188853167095</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
+        <v>1.478792205845523</v>
+      </c>
+      <c r="F38">
         <v>1.999235166587578</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38">
         <v>20.71938508053693</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38">
         <v>1.382142937439717</v>
       </c>
-      <c r="H38" t="n">
-        <v>115.4267854440122</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="I38">
+        <v>120.3348558300041</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>2024101702</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>55.55223137542629</v>
       </c>
-      <c r="C39" t="n">
-        <v>0.7047786303983548</v>
-      </c>
-      <c r="D39" t="n">
+      <c r="C39">
+        <v>3.1880490367113</v>
+      </c>
+      <c r="D39">
         <v>11.11528327975065</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
+        <v>0.7393961029227613</v>
+      </c>
+      <c r="F39">
         <v>1.899273408258199</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39">
         <v>20.71938508053693</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39">
         <v>0.6910714687198584</v>
       </c>
-      <c r="H39" t="n">
-        <v>90.68202324309027</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="I39">
+        <v>93.90468975232599</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
         <v>2024101703</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>55.93801075997787</v>
       </c>
-      <c r="C40" t="n">
-        <v>0.3691697587800905</v>
-      </c>
-      <c r="D40" t="n">
+      <c r="C40">
+        <v>1.669930447801157</v>
+      </c>
+      <c r="D40">
         <v>10.18900967310475</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
+        <v>2.218188308768283</v>
+      </c>
+      <c r="F40">
         <v>2.099196924916957</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40">
         <v>26.93520060469801</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40">
         <v>1.382142937439717</v>
       </c>
-      <c r="H40" t="n">
-        <v>96.91273065891738</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="I40">
+        <v>100.4316796567067</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
         <v>2024101704</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>104.5462132134758</v>
       </c>
-      <c r="C41" t="n">
-        <v>0.3691697587800905</v>
-      </c>
-      <c r="D41" t="n">
+      <c r="C41">
+        <v>1.669930447801157</v>
+      </c>
+      <c r="D41">
         <v>12.96783049304242</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
+        <v>3.696980514613805</v>
+      </c>
+      <c r="F41">
         <v>5.098049674798322</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41">
         <v>41.43877016107387</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41">
         <v>0.6910714687198584</v>
       </c>
-      <c r="H41" t="n">
-        <v>165.1111047698904</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="I41">
+        <v>170.1088459735252</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
         <v>2024101705</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>271.5886867243063</v>
       </c>
-      <c r="C42" t="n">
-        <v>0.3691697587800905</v>
-      </c>
-      <c r="D42" t="n">
+      <c r="C42">
+        <v>1.669930447801157</v>
+      </c>
+      <c r="D42">
         <v>24.08311377279306</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
+        <v>31.05463632275596</v>
+      </c>
+      <c r="F42">
         <v>10.09613759126727</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42">
         <v>76.66172479798662</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42">
         <v>5.528571749758867</v>
       </c>
-      <c r="H42" t="n">
-        <v>388.3274043948922</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="I42">
+        <v>420.6828014066692</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
         <v>2024101706</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>404.296795010047</v>
       </c>
-      <c r="C43" t="n">
-        <v>0.1678044358091321</v>
-      </c>
-      <c r="D43" t="n">
+      <c r="C43">
+        <v>0.7590592944550713</v>
+      </c>
+      <c r="D43">
         <v>34.27212344589782</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
+        <v>60.63048043966642</v>
+      </c>
+      <c r="F43">
         <v>12.2952962745136</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43">
         <v>153.3234495959732</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43">
         <v>6.219643218478722</v>
       </c>
-      <c r="H43" t="n">
-        <v>610.5751119807195</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="I43">
+        <v>671.7968472790319</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>2024101707</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>647.3378072775371</v>
       </c>
-      <c r="C44" t="n">
-        <v>0.5705350817510491</v>
-      </c>
-      <c r="D44" t="n">
+      <c r="C44">
+        <v>2.580801601147243</v>
+      </c>
+      <c r="D44">
         <v>43.53485951235669</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
+        <v>68.02444146889403</v>
+      </c>
+      <c r="F44">
         <v>14.59441671608931</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44">
         <v>111.8846794348995</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44">
         <v>12.43928643695744</v>
       </c>
-      <c r="H44" t="n">
-        <v>830.361584459591</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="I44">
+        <v>900.3962924478811</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
         <v>2024101708</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>656.9822918913264</v>
       </c>
-      <c r="C45" t="n">
-        <v>1.174631050663924</v>
-      </c>
-      <c r="D45" t="n">
+      <c r="C45">
+        <v>5.313415061185499</v>
+      </c>
+      <c r="D45">
         <v>52.79759557881555</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
+        <v>35.49101294029253</v>
+      </c>
+      <c r="F45">
         <v>16.69361364100628</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45">
         <v>126.3882489912753</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45">
         <v>5.528571749758867</v>
       </c>
-      <c r="H45" t="n">
-        <v>859.5649529028464</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="I45">
+        <v>899.1947498536605</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>2024101709</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>564.0094602143976</v>
       </c>
-      <c r="C46" t="n">
-        <v>1.812287906738626</v>
-      </c>
-      <c r="D46" t="n">
+      <c r="C46">
+        <v>8.197840380114769</v>
+      </c>
+      <c r="D46">
         <v>81.51207738483804</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
+        <v>32.53342852860149</v>
+      </c>
+      <c r="F46">
         <v>18.29300177427633</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46">
         <v>134.6760030234901</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46">
         <v>5.528571749758867</v>
       </c>
-      <c r="H46" t="n">
-        <v>805.8314020534996</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="I46">
+        <v>844.7503830554772</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
         <v>2024101710</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>419.7279703921099</v>
       </c>
-      <c r="C47" t="n">
-        <v>1.375996373634883</v>
-      </c>
-      <c r="D47" t="n">
+      <c r="C47">
+        <v>6.224286214531584</v>
+      </c>
+      <c r="D47">
         <v>47.23995393894023</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
+        <v>14.04852595553245</v>
+      </c>
+      <c r="F47">
         <v>16.19380484935938</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47">
         <v>91.16529435436249</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47">
         <v>3.455357343599291</v>
       </c>
-      <c r="H47" t="n">
-        <v>579.1583772520062</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="I47">
+        <v>598.0551930484353</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
         <v>2024101711</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>440.5600571578946</v>
       </c>
-      <c r="C48" t="n">
-        <v>1.375996373634883</v>
-      </c>
-      <c r="D48" t="n">
+      <c r="C48">
+        <v>6.224286214531584</v>
+      </c>
+      <c r="D48">
         <v>41.6823122990649</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
+        <v>14.04852595553245</v>
+      </c>
+      <c r="F48">
         <v>15.19418726606559</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48">
         <v>80.80560181409402</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48">
         <v>6.910714687198581</v>
       </c>
-      <c r="H48" t="n">
-        <v>586.5288695979525</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="I48">
+        <v>605.4256853943816</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
         <v>2024101712</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>444.4178510034103</v>
       </c>
-      <c r="C49" t="n">
-        <v>1.073948389178445</v>
-      </c>
-      <c r="D49" t="n">
+      <c r="C49">
+        <v>4.857979484512456</v>
+      </c>
+      <c r="D49">
         <v>44.46113311900258</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
+        <v>13.30912985260969</v>
+      </c>
+      <c r="F49">
         <v>11.99541099952547</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49">
         <v>74.58978628993297</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49">
         <v>4.837500281039007</v>
       </c>
-      <c r="H49" t="n">
-        <v>581.3756300820887</v>
+      <c r="I49">
+        <v>598.4687910300324</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/경기대로_가을_배출량/경기대로_가을_배출량_CO.xlsx
+++ b/output/경기대로_가을_배출량/경기대로_가을_배출량_CO.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>575.9686211354964</v>
+        <v>834.9040795068453</v>
       </c>
       <c r="C2">
-        <v>7.286969226768687</v>
+        <v>10.56293713132469</v>
       </c>
       <c r="D2">
-        <v>59.28151082533676</v>
+        <v>85.93241612681425</v>
       </c>
       <c r="E2">
-        <v>13.30912985260969</v>
+        <v>19.29245170808727</v>
       </c>
       <c r="F2">
-        <v>20.09231342420516</v>
+        <v>29.12511867665218</v>
       </c>
       <c r="G2">
-        <v>70.44590927382556</v>
+        <v>102.1159397908411</v>
       </c>
       <c r="H2">
-        <v>8.983929093358153</v>
+        <v>13.02279112924177</v>
       </c>
       <c r="I2">
-        <v>755.3683828316003</v>
+        <v>1094.955734069807</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>594.8718109785233</v>
+        <v>862.3054860010423</v>
       </c>
       <c r="C3">
-        <v>8.046028521223757</v>
+        <v>11.66324308250435</v>
       </c>
       <c r="D3">
-        <v>60.20778443198266</v>
+        <v>87.27511012879573</v>
       </c>
       <c r="E3">
-        <v>13.30912985260969</v>
+        <v>19.29245170808727</v>
       </c>
       <c r="F3">
-        <v>19.39258111589951</v>
+        <v>28.11081106104738</v>
       </c>
       <c r="G3">
-        <v>55.94233971744973</v>
+        <v>81.09206983390321</v>
       </c>
       <c r="H3">
-        <v>8.292857624638298</v>
+        <v>12.02103796545395</v>
       </c>
       <c r="I3">
-        <v>760.0625322423268</v>
+        <v>1101.760209780834</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>602.5873986695552</v>
+        <v>873.4897335496937</v>
       </c>
       <c r="C4">
-        <v>7.438781085659699</v>
+        <v>10.78299832156063</v>
       </c>
       <c r="D4">
-        <v>61.13405803862852</v>
+        <v>88.61780413077723</v>
       </c>
       <c r="E4">
-        <v>12.56973374968694</v>
+        <v>18.22064883541576</v>
       </c>
       <c r="F4">
-        <v>18.09307825761757</v>
+        <v>26.22709691778132</v>
       </c>
       <c r="G4">
-        <v>55.94233971744973</v>
+        <v>81.09206983390321</v>
       </c>
       <c r="H4">
-        <v>7.601786155918439</v>
+        <v>11.01928480166612</v>
       </c>
       <c r="I4">
-        <v>765.3671756745161</v>
+        <v>1109.449636390798</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>651.5813805076044</v>
+        <v>944.5097054836314</v>
       </c>
       <c r="C5">
-        <v>6.224286214531584</v>
+        <v>9.022508799673176</v>
       </c>
       <c r="D5">
-        <v>63.91287885856622</v>
+        <v>92.6458861367216</v>
       </c>
       <c r="E5">
-        <v>21.44248698476007</v>
+        <v>31.08228330747395</v>
       </c>
       <c r="F5">
-        <v>17.79319298262945</v>
+        <v>25.79239365395068</v>
       </c>
       <c r="G5">
-        <v>53.87040120939602</v>
+        <v>78.08865984005492</v>
       </c>
       <c r="H5">
-        <v>6.910714687198581</v>
+        <v>10.01753163787829</v>
       </c>
       <c r="I5">
-        <v>821.7353414446865</v>
+        <v>1191.158968859384</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>743.7826534154296</v>
+        <v>1078.161463690019</v>
       </c>
       <c r="C6">
-        <v>5.920662496749555</v>
+        <v>8.582386419201313</v>
       </c>
       <c r="D6">
-        <v>58.35523721869089</v>
+        <v>84.58972212483275</v>
       </c>
       <c r="E6">
-        <v>47.32135058705672</v>
+        <v>68.595383850977</v>
       </c>
       <c r="F6">
-        <v>14.99426374940683</v>
+        <v>21.73516319153147</v>
       </c>
       <c r="G6">
-        <v>26.93520060469801</v>
+        <v>39.04432992002746</v>
       </c>
       <c r="H6">
-        <v>6.219643218478722</v>
+        <v>9.01577847409046</v>
       </c>
       <c r="I6">
-        <v>903.5290112905103</v>
+        <v>1309.72422767068</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>793.9339734071342</v>
+        <v>1150.859072756256</v>
       </c>
       <c r="C7">
-        <v>2.277177883365214</v>
+        <v>3.300917853538966</v>
       </c>
       <c r="D7">
-        <v>39.82976508577313</v>
+        <v>57.73584208520333</v>
       </c>
       <c r="E7">
-        <v>49.53953889582499</v>
+        <v>71.81079246899152</v>
       </c>
       <c r="F7">
-        <v>9.696290557949753</v>
+        <v>14.05540553052369</v>
       </c>
       <c r="G7">
-        <v>26.93520060469801</v>
+        <v>39.04432992002746</v>
       </c>
       <c r="H7">
-        <v>6.910714687198581</v>
+        <v>10.01753163787829</v>
       </c>
       <c r="I7">
-        <v>929.1226611219439</v>
+        <v>1346.823892252419</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>604.1305162077613</v>
+        <v>875.7265830594241</v>
       </c>
       <c r="C8">
-        <v>2.884425318929271</v>
+        <v>4.181162614482692</v>
       </c>
       <c r="D8">
-        <v>54.65014279210735</v>
+        <v>79.21894611690692</v>
       </c>
       <c r="E8">
-        <v>29.57584411691044</v>
+        <v>42.87211490686063</v>
       </c>
       <c r="F8">
-        <v>7.197246599715281</v>
+        <v>10.43287833193511</v>
       </c>
       <c r="G8">
-        <v>24.86326209664431</v>
+        <v>36.04091992617919</v>
       </c>
       <c r="H8">
-        <v>1.382142937439717</v>
+        <v>2.003506327575658</v>
       </c>
       <c r="I8">
-        <v>724.6835800695077</v>
+        <v>1050.476111283364</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>481.0668925358098</v>
+        <v>697.3378346584302</v>
       </c>
       <c r="C9">
-        <v>3.036237177820285</v>
+        <v>4.401223804718622</v>
       </c>
       <c r="D9">
-        <v>34.27212344589782</v>
+        <v>49.67967807331449</v>
       </c>
       <c r="E9">
-        <v>56.19410382212982</v>
+        <v>81.45701832303517</v>
       </c>
       <c r="F9">
-        <v>3.298738024869503</v>
+        <v>4.781735902136923</v>
       </c>
       <c r="G9">
-        <v>29.00713911275169</v>
+        <v>42.04773991387572</v>
       </c>
       <c r="H9">
-        <v>2.073214406159575</v>
+        <v>3.005259491363487</v>
       </c>
       <c r="I9">
-        <v>608.9484485254384</v>
+        <v>882.7104901668746</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>398.5101042417735</v>
+        <v>577.6663858878577</v>
       </c>
       <c r="C10">
-        <v>1.518118588910143</v>
+        <v>2.200611902359311</v>
       </c>
       <c r="D10">
-        <v>28.7144818060225</v>
+        <v>41.62351406142567</v>
       </c>
       <c r="E10">
-        <v>28.09705191106491</v>
+        <v>40.72850916151759</v>
       </c>
       <c r="F10">
-        <v>3.098814508210746</v>
+        <v>4.49193372624984</v>
       </c>
       <c r="G10">
-        <v>35.22295463691278</v>
+        <v>51.05796989542056</v>
       </c>
       <c r="H10">
-        <v>0.6910714687198584</v>
+        <v>1.001753163787829</v>
       </c>
       <c r="I10">
-        <v>495.8525971616145</v>
+        <v>718.7706777986185</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>283.1620682608536</v>
+        <v>410.4618850355154</v>
       </c>
       <c r="C11">
-        <v>3.036237177820285</v>
+        <v>4.401223804718622</v>
       </c>
       <c r="D11">
-        <v>14.82037770633419</v>
+        <v>21.48310403170356</v>
       </c>
       <c r="E11">
-        <v>13.30912985260969</v>
+        <v>19.29245170808727</v>
       </c>
       <c r="F11">
-        <v>3.398699783198882</v>
+        <v>4.926636990080467</v>
       </c>
       <c r="G11">
-        <v>24.86326209664431</v>
+        <v>36.04091992617919</v>
       </c>
       <c r="H11">
-        <v>2.764285874879433</v>
+        <v>4.007012655151317</v>
       </c>
       <c r="I11">
-        <v>345.3540607523404</v>
+        <v>500.6132341514358</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>173.9865024327588</v>
+        <v>252.2047822220947</v>
       </c>
       <c r="C12">
-        <v>3.036237177820285</v>
+        <v>4.401223804718622</v>
       </c>
       <c r="D12">
-        <v>8.33646245981298</v>
+        <v>12.08424601783326</v>
       </c>
       <c r="E12">
-        <v>6.654564926304847</v>
+        <v>9.646225854043637</v>
       </c>
       <c r="F12">
-        <v>1.899273408258199</v>
+        <v>2.75312067092732</v>
       </c>
       <c r="G12">
-        <v>18.64744657248324</v>
+        <v>27.0306899446344</v>
       </c>
       <c r="H12">
-        <v>1.382142937439717</v>
+        <v>2.003506327575658</v>
       </c>
       <c r="I12">
-        <v>213.9426299148781</v>
+        <v>310.1237948418276</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,25 +757,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>123.4494030565029</v>
+        <v>178.9479607784263</v>
       </c>
       <c r="C13">
-        <v>4.554355766730428</v>
+        <v>6.601835707077932</v>
       </c>
       <c r="D13">
-        <v>9.262736066458869</v>
+        <v>13.42694001981472</v>
       </c>
       <c r="E13">
-        <v>4.436376617536567</v>
+        <v>6.430817236029091</v>
       </c>
       <c r="F13">
-        <v>1.999235166587578</v>
+        <v>2.898021758870863</v>
       </c>
       <c r="G13">
-        <v>22.79132358859062</v>
+        <v>33.03750993233093</v>
       </c>
       <c r="I13">
-        <v>166.493430262407</v>
+        <v>241.3430854325499</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,28 +783,28 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>81.39945014038162</v>
+        <v>117.9938116382749</v>
       </c>
       <c r="C14">
-        <v>4.857979484512456</v>
+        <v>7.041958087549796</v>
       </c>
       <c r="D14">
-        <v>5.557641639875323</v>
+        <v>8.056164011888837</v>
       </c>
       <c r="E14">
-        <v>2.218188308768283</v>
+        <v>3.215408618014545</v>
       </c>
       <c r="F14">
-        <v>2.199158683246337</v>
+        <v>3.18782393475795</v>
       </c>
       <c r="G14">
-        <v>33.15101612885908</v>
+        <v>48.05455990157225</v>
       </c>
       <c r="H14">
-        <v>0.6910714687198584</v>
+        <v>1.001753163787829</v>
       </c>
       <c r="I14">
-        <v>130.074505854363</v>
+        <v>188.5514793558462</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,28 +812,28 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>62.11048091280301</v>
+        <v>90.0331927666458</v>
       </c>
       <c r="C15">
-        <v>3.643484613384343</v>
+        <v>5.281468565662347</v>
       </c>
       <c r="D15">
-        <v>10.18900967310475</v>
+        <v>14.7696340217962</v>
       </c>
       <c r="E15">
-        <v>2.957584411691045</v>
+        <v>4.287211490686063</v>
       </c>
       <c r="F15">
-        <v>1.699349891599441</v>
+        <v>2.463318495040233</v>
       </c>
       <c r="G15">
-        <v>29.00713911275169</v>
+        <v>42.04773991387572</v>
       </c>
       <c r="H15">
-        <v>1.382142937439717</v>
+        <v>2.003506327575658</v>
       </c>
       <c r="I15">
-        <v>110.989191552774</v>
+        <v>160.886071581282</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,28 +841,28 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>56.70956952908099</v>
+        <v>82.20421948258959</v>
       </c>
       <c r="C16">
-        <v>1.366306730019128</v>
+        <v>1.98055071212338</v>
       </c>
       <c r="D16">
-        <v>12.04155688639653</v>
+        <v>17.45502202575915</v>
       </c>
       <c r="E16">
-        <v>2.218188308768283</v>
+        <v>3.215408618014545</v>
       </c>
       <c r="F16">
-        <v>1.599388133270062</v>
+        <v>2.318417407096692</v>
       </c>
       <c r="G16">
-        <v>24.86326209664431</v>
+        <v>36.04091992617919</v>
       </c>
       <c r="H16">
-        <v>0.6910714687198584</v>
+        <v>1.001753163787829</v>
       </c>
       <c r="I16">
-        <v>99.48934315289915</v>
+        <v>144.2162913355504</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -870,28 +870,28 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>114.1906978272652</v>
+        <v>165.5268637200444</v>
       </c>
       <c r="C17">
-        <v>1.973554165583186</v>
+        <v>2.860795473067105</v>
       </c>
       <c r="D17">
-        <v>18.52547213291774</v>
+        <v>26.85388003962944</v>
       </c>
       <c r="E17">
-        <v>2.218188308768283</v>
+        <v>3.215408618014545</v>
       </c>
       <c r="F17">
-        <v>3.698585058187021</v>
+        <v>5.361340253911096</v>
       </c>
       <c r="G17">
-        <v>37.29489314496649</v>
+        <v>54.06137988926879</v>
       </c>
       <c r="H17">
-        <v>2.073214406159575</v>
+        <v>3.005259491363487</v>
       </c>
       <c r="I17">
-        <v>179.9746050438474</v>
+        <v>260.8849274852989</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,28 +899,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>251.5281587276247</v>
+        <v>364.6064700860437</v>
       </c>
       <c r="C18">
-        <v>1.214494871128114</v>
+        <v>1.760489521887449</v>
       </c>
       <c r="D18">
-        <v>29.64075541266838</v>
+        <v>42.96620806340712</v>
       </c>
       <c r="E18">
-        <v>35.49101294029253</v>
+        <v>51.44653788823273</v>
       </c>
       <c r="F18">
-        <v>8.496749457997202</v>
+        <v>12.31659247520117</v>
       </c>
       <c r="G18">
-        <v>68.37397076577189</v>
+        <v>99.11252979699282</v>
       </c>
       <c r="H18">
-        <v>2.073214406159575</v>
+        <v>3.005259491363487</v>
       </c>
       <c r="I18">
-        <v>396.8183565816425</v>
+        <v>575.2140873231284</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,28 +928,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>442.874733465204</v>
+        <v>641.9758092926047</v>
       </c>
       <c r="C19">
-        <v>2.1253660244742</v>
+        <v>3.080856663303035</v>
       </c>
       <c r="D19">
-        <v>54.65014279210735</v>
+        <v>79.21894611690692</v>
       </c>
       <c r="E19">
-        <v>73.20021418935335</v>
+        <v>106.1084843944801</v>
       </c>
       <c r="F19">
-        <v>14.39449319943056</v>
+        <v>20.86575666387021</v>
       </c>
       <c r="G19">
-        <v>122.2443719751679</v>
+        <v>177.2011896370477</v>
       </c>
       <c r="H19">
-        <v>6.910714687198581</v>
+        <v>10.01753163787829</v>
       </c>
       <c r="I19">
-        <v>716.400036332936</v>
+        <v>1038.468574406091</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -957,28 +957,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>599.8869429776937</v>
+        <v>869.5752469076651</v>
       </c>
       <c r="C20">
-        <v>2.277177883365214</v>
+        <v>3.300917853538966</v>
       </c>
       <c r="D20">
-        <v>48.16622754558612</v>
+        <v>69.82008810303658</v>
       </c>
       <c r="E20">
-        <v>63.58806485135745</v>
+        <v>92.17504704975033</v>
       </c>
       <c r="F20">
-        <v>13.99464616611304</v>
+        <v>20.28615231209604</v>
       </c>
       <c r="G20">
-        <v>105.6688639107384</v>
+        <v>153.1739096862616</v>
       </c>
       <c r="H20">
-        <v>6.910714687198581</v>
+        <v>10.01753163787829</v>
       </c>
       <c r="I20">
-        <v>840.4926380220525</v>
+        <v>1218.348893550227</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -986,28 +986,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>475.6659811520876</v>
+        <v>689.5088613743743</v>
       </c>
       <c r="C21">
-        <v>2.428989742256228</v>
+        <v>3.520979043774898</v>
       </c>
       <c r="D21">
-        <v>24.08311377279306</v>
+        <v>34.91004405151829</v>
       </c>
       <c r="E21">
-        <v>26.61825970521939</v>
+        <v>38.58490341617455</v>
       </c>
       <c r="F21">
-        <v>10.99579341623167</v>
+        <v>15.93911967378975</v>
       </c>
       <c r="G21">
-        <v>76.66172479798662</v>
+        <v>111.1261697723858</v>
       </c>
       <c r="H21">
-        <v>2.764285874879433</v>
+        <v>4.007012655151317</v>
       </c>
       <c r="I21">
-        <v>619.218148461454</v>
+        <v>897.5970899871691</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1015,28 +1015,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>563.2379014452945</v>
+        <v>816.4500710515703</v>
       </c>
       <c r="C22">
-        <v>7.590592944550714</v>
+        <v>11.00305951179656</v>
       </c>
       <c r="D22">
-        <v>75.02816213831686</v>
+        <v>108.7582141604993</v>
       </c>
       <c r="E22">
-        <v>27.35765580814215</v>
+        <v>39.6567062888461</v>
       </c>
       <c r="F22">
-        <v>20.79204573251081</v>
+        <v>30.13942629225697</v>
       </c>
       <c r="G22">
-        <v>138.8198800395975</v>
+        <v>201.2284695878338</v>
       </c>
       <c r="H22">
-        <v>2.764285874879433</v>
+        <v>4.007012655151317</v>
       </c>
       <c r="I22">
-        <v>835.5905239832919</v>
+        <v>1211.242959547954</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1044,28 +1044,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>506.142552531662</v>
+        <v>733.6866391915481</v>
       </c>
       <c r="C23">
-        <v>7.894216662332743</v>
+        <v>11.44318189226842</v>
       </c>
       <c r="D23">
-        <v>61.13405803862852</v>
+        <v>88.61780413077723</v>
       </c>
       <c r="E23">
-        <v>17.00611036722351</v>
+        <v>24.65146607144486</v>
       </c>
       <c r="F23">
-        <v>22.49139562411025</v>
+        <v>32.60274478729721</v>
       </c>
       <c r="G23">
-        <v>105.6688639107384</v>
+        <v>153.1739096862616</v>
       </c>
       <c r="H23">
-        <v>3.455357343599291</v>
+        <v>5.008765818939146</v>
       </c>
       <c r="I23">
-        <v>723.7925544782947</v>
+        <v>1049.184511578536</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1073,28 +1073,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>531.218212527514</v>
+        <v>770.0354437246659</v>
       </c>
       <c r="C24">
-        <v>7.894216662332743</v>
+        <v>11.44318189226842</v>
       </c>
       <c r="D24">
-        <v>54.65014279210735</v>
+        <v>79.21894611690692</v>
       </c>
       <c r="E24">
-        <v>16.26671426430075</v>
+        <v>23.57966319877334</v>
       </c>
       <c r="F24">
-        <v>20.99196924916957</v>
+        <v>30.42922846814407</v>
       </c>
       <c r="G24">
-        <v>93.23723286241621</v>
+        <v>135.153449723172</v>
       </c>
       <c r="H24">
-        <v>6.910714687198581</v>
+        <v>10.01753163787829</v>
       </c>
       <c r="I24">
-        <v>731.1692030450391</v>
+        <v>1059.877444761809</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1102,28 +1102,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>535.8475651421328</v>
+        <v>776.7459922538571</v>
       </c>
       <c r="C25">
-        <v>6.07247435564057</v>
+        <v>8.802447609437245</v>
       </c>
       <c r="D25">
-        <v>57.428963612045</v>
+        <v>83.24702812285133</v>
       </c>
       <c r="E25">
-        <v>15.52731816137798</v>
+        <v>22.50786032610182</v>
       </c>
       <c r="F25">
-        <v>16.59365188267689</v>
+        <v>24.05358059862817</v>
       </c>
       <c r="G25">
-        <v>87.02141733825508</v>
+        <v>126.1432197416272</v>
       </c>
       <c r="H25">
-        <v>4.837500281039007</v>
+        <v>7.012272146514803</v>
       </c>
       <c r="I25">
-        <v>723.3288907731672</v>
+        <v>1048.512400799018</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1131,28 +1131,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>551.2787405241961</v>
+        <v>799.1144873511602</v>
       </c>
       <c r="C26">
-        <v>6.527909932313612</v>
+        <v>9.462631180145038</v>
       </c>
       <c r="D26">
-        <v>50.9450483655238</v>
+        <v>73.84817010898098</v>
       </c>
       <c r="E26">
-        <v>8.872753235073134</v>
+        <v>12.86163447205818</v>
       </c>
       <c r="F26">
-        <v>21.19189276582832</v>
+        <v>30.71903064403115</v>
       </c>
       <c r="G26">
-        <v>116.0285564510068</v>
+        <v>168.1909596555029</v>
       </c>
       <c r="H26">
-        <v>5.528571749758867</v>
+        <v>8.014025310302634</v>
       </c>
       <c r="I26">
-        <v>760.3734730237006</v>
+        <v>1102.210938722181</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1160,28 +1160,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>578.669076827357</v>
+        <v>838.8185661488736</v>
       </c>
       <c r="C27">
-        <v>5.161603202294486</v>
+        <v>7.48208046802166</v>
       </c>
       <c r="D27">
-        <v>71.32306771173329</v>
+        <v>103.3874381525733</v>
       </c>
       <c r="E27">
-        <v>17.74550647014627</v>
+        <v>25.72326894411636</v>
       </c>
       <c r="F27">
-        <v>17.79319298262945</v>
+        <v>25.79239365395068</v>
       </c>
       <c r="G27">
-        <v>45.58264717718124</v>
+        <v>66.07501986466187</v>
       </c>
       <c r="H27">
-        <v>4.837500281039007</v>
+        <v>7.012272146514803</v>
       </c>
       <c r="I27">
-        <v>741.1125946523807</v>
+        <v>1074.291039378712</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1189,28 +1189,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>560.151666368882</v>
+        <v>811.97637203211</v>
       </c>
       <c r="C28">
-        <v>7.894216662332743</v>
+        <v>11.44318189226842</v>
       </c>
       <c r="D28">
-        <v>70.39679410508742</v>
+        <v>102.0447441505919</v>
       </c>
       <c r="E28">
-        <v>16.26671426430075</v>
+        <v>23.57966319877334</v>
       </c>
       <c r="F28">
-        <v>16.79357539933566</v>
+        <v>24.34338277451526</v>
       </c>
       <c r="G28">
-        <v>93.23723286241621</v>
+        <v>135.153449723172</v>
       </c>
       <c r="H28">
-        <v>11.05714349951773</v>
+        <v>16.02805062060527</v>
       </c>
       <c r="I28">
-        <v>775.7973431618725</v>
+        <v>1124.568844392036</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1218,28 +1218,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>616.08967712886</v>
+        <v>893.0621667598346</v>
       </c>
       <c r="C29">
-        <v>6.831533650095641</v>
+        <v>9.902753560616901</v>
       </c>
       <c r="D29">
-        <v>68.54424689179564</v>
+        <v>99.35935614662898</v>
       </c>
       <c r="E29">
-        <v>21.44248698476007</v>
+        <v>31.08228330747395</v>
       </c>
       <c r="F29">
-        <v>16.69361364100628</v>
+        <v>24.19848168657171</v>
       </c>
       <c r="G29">
-        <v>55.94233971744973</v>
+        <v>81.09206983390321</v>
       </c>
       <c r="H29">
-        <v>17.27678671799645</v>
+        <v>25.04382909469574</v>
       </c>
       <c r="I29">
-        <v>802.8206847319638</v>
+        <v>1163.740940389725</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1247,28 +1247,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>771.9445484876945</v>
+        <v>1118.983967242598</v>
       </c>
       <c r="C30">
-        <v>3.339860895602314</v>
+        <v>4.841346185190484</v>
       </c>
       <c r="D30">
-        <v>43.53485951235669</v>
+        <v>63.1066180931292</v>
       </c>
       <c r="E30">
-        <v>35.49101294029253</v>
+        <v>51.44653788823273</v>
       </c>
       <c r="F30">
-        <v>14.49445495775994</v>
+        <v>21.01065775181376</v>
       </c>
       <c r="G30">
-        <v>43.51070866912754</v>
+        <v>63.0716098708136</v>
       </c>
       <c r="H30">
-        <v>8.983929093358153</v>
+        <v>13.02279112924177</v>
       </c>
       <c r="I30">
-        <v>921.2993745561917</v>
+        <v>1335.483528161019</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1276,28 +1276,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>803.1926786363721</v>
+        <v>1164.280169814636</v>
       </c>
       <c r="C31">
-        <v>4.402543907839414</v>
+        <v>6.381774516842002</v>
       </c>
       <c r="D31">
-        <v>54.65014279210735</v>
+        <v>79.21894611690692</v>
       </c>
       <c r="E31">
-        <v>51.75772720459326</v>
+        <v>75.02620108700609</v>
       </c>
       <c r="F31">
-        <v>11.09575517456105</v>
+        <v>16.08402076173329</v>
       </c>
       <c r="G31">
-        <v>39.36683165302017</v>
+        <v>57.06478988311707</v>
       </c>
       <c r="H31">
-        <v>2.764285874879433</v>
+        <v>4.007012655151317</v>
       </c>
       <c r="I31">
-        <v>967.2299652433728</v>
+        <v>1402.062914835393</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1305,28 +1305,28 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>635.3786463564384</v>
+        <v>921.0227856314634</v>
       </c>
       <c r="C32">
-        <v>3.1880490367113</v>
+        <v>4.621284994954554</v>
       </c>
       <c r="D32">
-        <v>46.31368033229436</v>
+        <v>67.13470009907363</v>
       </c>
       <c r="E32">
-        <v>34.75161683736977</v>
+        <v>50.37473501556123</v>
       </c>
       <c r="F32">
-        <v>7.797017149691553</v>
+        <v>11.30228485959636</v>
       </c>
       <c r="G32">
-        <v>31.07907762080539</v>
+        <v>45.05114990772401</v>
       </c>
       <c r="H32">
-        <v>6.219643218478722</v>
+        <v>9.01577847409046</v>
       </c>
       <c r="I32">
-        <v>764.7277305517894</v>
+        <v>1108.522718982464</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1334,28 +1334,28 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>531.9897712966172</v>
+        <v>771.1538684795316</v>
       </c>
       <c r="C33">
-        <v>4.554355766730428</v>
+        <v>6.601835707077932</v>
       </c>
       <c r="D33">
-        <v>36.12467065918957</v>
+        <v>52.36506607727743</v>
       </c>
       <c r="E33">
-        <v>47.32135058705672</v>
+        <v>68.595383850977</v>
       </c>
       <c r="F33">
-        <v>4.998087916468944</v>
+        <v>7.245054397177157</v>
       </c>
       <c r="G33">
-        <v>33.15101612885908</v>
+        <v>48.05455990157225</v>
       </c>
       <c r="H33">
-        <v>0.6910714687198584</v>
+        <v>1.001753163787829</v>
       </c>
       <c r="I33">
-        <v>658.8303238236417</v>
+        <v>955.0175215774012</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1363,28 +1363,28 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>437.0880426969304</v>
+        <v>633.587623631116</v>
       </c>
       <c r="C34">
-        <v>3.036237177820285</v>
+        <v>4.401223804718622</v>
       </c>
       <c r="D34">
-        <v>24.08311377279306</v>
+        <v>34.91004405151829</v>
       </c>
       <c r="E34">
-        <v>22.9212791906056</v>
+        <v>33.22588905281697</v>
       </c>
       <c r="F34">
-        <v>3.198776266540124</v>
+        <v>4.636834814193383</v>
       </c>
       <c r="G34">
-        <v>16.57550806442954</v>
+        <v>24.02727995078613</v>
       </c>
       <c r="H34">
-        <v>2.764285874879433</v>
+        <v>4.007012655151317</v>
       </c>
       <c r="I34">
-        <v>509.6672430439984</v>
+        <v>738.7959079603008</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1392,28 +1392,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>309.0092870258088</v>
+        <v>447.9291143234988</v>
       </c>
       <c r="C35">
-        <v>2.884425318929271</v>
+        <v>4.181162614482692</v>
       </c>
       <c r="D35">
-        <v>23.15684016614718</v>
+        <v>33.56735004953681</v>
       </c>
       <c r="E35">
-        <v>12.56973374968694</v>
+        <v>18.22064883541576</v>
       </c>
       <c r="F35">
-        <v>2.399082199905092</v>
+        <v>3.477626110645036</v>
       </c>
       <c r="G35">
-        <v>26.93520060469801</v>
+        <v>39.04432992002746</v>
       </c>
       <c r="H35">
-        <v>0.6910714687198584</v>
+        <v>1.001753163787829</v>
       </c>
       <c r="I35">
-        <v>377.6456405338951</v>
+        <v>547.4219850173944</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1421,28 +1421,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>194.432809813992</v>
+        <v>281.8430382260215</v>
       </c>
       <c r="C36">
-        <v>5.313415061185499</v>
+        <v>7.702141658257591</v>
       </c>
       <c r="D36">
-        <v>9.262736066458869</v>
+        <v>13.42694001981472</v>
       </c>
       <c r="E36">
-        <v>6.654564926304847</v>
+        <v>9.646225854043637</v>
       </c>
       <c r="F36">
-        <v>1.999235166587578</v>
+        <v>2.898021758870863</v>
       </c>
       <c r="G36">
-        <v>18.64744657248324</v>
+        <v>27.0306899446344</v>
       </c>
       <c r="H36">
-        <v>0.6910714687198584</v>
+        <v>1.001753163787829</v>
       </c>
       <c r="I36">
-        <v>237.0012790757319</v>
+        <v>343.5488106254305</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1450,28 +1450,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>147.7535042832519</v>
+        <v>214.178340556679</v>
       </c>
       <c r="C37">
-        <v>6.3760980734226</v>
+        <v>9.242569989909109</v>
       </c>
       <c r="D37">
-        <v>9.262736066458869</v>
+        <v>13.42694001981472</v>
       </c>
       <c r="E37">
-        <v>2.957584411691045</v>
+        <v>4.287211490686063</v>
       </c>
       <c r="F37">
-        <v>1.699349891599441</v>
+        <v>2.463318495040233</v>
       </c>
       <c r="G37">
-        <v>20.71938508053693</v>
+        <v>30.03409993848266</v>
       </c>
       <c r="H37">
-        <v>2.764285874879433</v>
+        <v>4.007012655151317</v>
       </c>
       <c r="I37">
-        <v>191.5329436818402</v>
+        <v>277.6394931457631</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1479,28 +1479,28 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>82.94256767858788</v>
+        <v>120.2306611480052</v>
       </c>
       <c r="C38">
-        <v>4.402543907839414</v>
+        <v>6.381774516842002</v>
       </c>
       <c r="D38">
-        <v>7.410188853167095</v>
+        <v>10.74155201585178</v>
       </c>
       <c r="E38">
-        <v>1.478792205845523</v>
+        <v>2.143605745343031</v>
       </c>
       <c r="F38">
-        <v>1.999235166587578</v>
+        <v>2.898021758870863</v>
       </c>
       <c r="G38">
-        <v>20.71938508053693</v>
+        <v>30.03409993848266</v>
       </c>
       <c r="H38">
-        <v>1.382142937439717</v>
+        <v>2.003506327575658</v>
       </c>
       <c r="I38">
-        <v>120.3348558300041</v>
+        <v>174.4332214509712</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1508,28 +1508,28 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>55.55223137542629</v>
+        <v>80.52658235029187</v>
       </c>
       <c r="C39">
-        <v>3.1880490367113</v>
+        <v>4.621284994954554</v>
       </c>
       <c r="D39">
-        <v>11.11528327975065</v>
+        <v>16.11232802377767</v>
       </c>
       <c r="E39">
-        <v>0.7393961029227613</v>
+        <v>1.071802872671516</v>
       </c>
       <c r="F39">
-        <v>1.899273408258199</v>
+        <v>2.75312067092732</v>
       </c>
       <c r="G39">
-        <v>20.71938508053693</v>
+        <v>30.03409993848266</v>
       </c>
       <c r="H39">
-        <v>0.6910714687198584</v>
+        <v>1.001753163787829</v>
       </c>
       <c r="I39">
-        <v>93.90468975232599</v>
+        <v>136.1209720148934</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1537,28 +1537,28 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>55.93801075997787</v>
+        <v>81.08579472772448</v>
       </c>
       <c r="C40">
-        <v>1.669930447801157</v>
+        <v>2.420673092595242</v>
       </c>
       <c r="D40">
-        <v>10.18900967310475</v>
+        <v>14.7696340217962</v>
       </c>
       <c r="E40">
-        <v>2.218188308768283</v>
+        <v>3.215408618014545</v>
       </c>
       <c r="F40">
-        <v>2.099196924916957</v>
+        <v>3.042922846814407</v>
       </c>
       <c r="G40">
-        <v>26.93520060469801</v>
+        <v>39.04432992002746</v>
       </c>
       <c r="H40">
-        <v>1.382142937439717</v>
+        <v>2.003506327575658</v>
       </c>
       <c r="I40">
-        <v>100.4316796567067</v>
+        <v>145.582269554548</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1566,28 +1566,28 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>104.5462132134758</v>
+        <v>151.5465542842299</v>
       </c>
       <c r="C41">
-        <v>1.669930447801157</v>
+        <v>2.420673092595242</v>
       </c>
       <c r="D41">
-        <v>12.96783049304242</v>
+        <v>18.79771602774062</v>
       </c>
       <c r="E41">
-        <v>3.696980514613805</v>
+        <v>5.359014363357579</v>
       </c>
       <c r="F41">
-        <v>5.098049674798322</v>
+        <v>7.389955485120701</v>
       </c>
       <c r="G41">
-        <v>41.43877016107387</v>
+        <v>60.06819987696532</v>
       </c>
       <c r="H41">
-        <v>0.6910714687198584</v>
+        <v>1.001753163787829</v>
       </c>
       <c r="I41">
-        <v>170.1088459735252</v>
+        <v>246.5838662937972</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1595,28 +1595,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>271.5886867243063</v>
+        <v>393.685513712538</v>
       </c>
       <c r="C42">
-        <v>1.669930447801157</v>
+        <v>2.420673092595242</v>
       </c>
       <c r="D42">
-        <v>24.08311377279306</v>
+        <v>34.91004405151829</v>
       </c>
       <c r="E42">
-        <v>31.05463632275596</v>
+        <v>45.01572065220365</v>
       </c>
       <c r="F42">
-        <v>10.09613759126727</v>
+        <v>14.63500988229786</v>
       </c>
       <c r="G42">
-        <v>76.66172479798662</v>
+        <v>111.1261697723858</v>
       </c>
       <c r="H42">
-        <v>5.528571749758867</v>
+        <v>8.014025310302634</v>
       </c>
       <c r="I42">
-        <v>420.6828014066692</v>
+        <v>609.8071564738415</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1624,28 +1624,28 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>404.296795010047</v>
+        <v>586.0545715493462</v>
       </c>
       <c r="C43">
-        <v>0.7590592944550713</v>
+        <v>1.100305951179656</v>
       </c>
       <c r="D43">
-        <v>34.27212344589782</v>
+        <v>49.67967807331449</v>
       </c>
       <c r="E43">
-        <v>60.63048043966642</v>
+        <v>87.88783555906427</v>
       </c>
       <c r="F43">
-        <v>12.2952962745136</v>
+        <v>17.82283381705581</v>
       </c>
       <c r="G43">
-        <v>153.3234495959732</v>
+        <v>222.2523395447716</v>
       </c>
       <c r="H43">
-        <v>6.219643218478722</v>
+        <v>9.01577847409046</v>
       </c>
       <c r="I43">
-        <v>671.7968472790319</v>
+        <v>973.8133429688223</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1653,28 +1653,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>647.3378072775371</v>
+        <v>938.3583693318734</v>
       </c>
       <c r="C44">
-        <v>2.580801601147243</v>
+        <v>3.74104023401083</v>
       </c>
       <c r="D44">
-        <v>43.53485951235669</v>
+        <v>63.1066180931292</v>
       </c>
       <c r="E44">
-        <v>68.02444146889403</v>
+        <v>98.60586428577943</v>
       </c>
       <c r="F44">
-        <v>14.59441671608931</v>
+        <v>21.1555588397573</v>
       </c>
       <c r="G44">
-        <v>111.8846794348995</v>
+        <v>162.1841396678064</v>
       </c>
       <c r="H44">
-        <v>12.43928643695744</v>
+        <v>18.03155694818092</v>
       </c>
       <c r="I44">
-        <v>900.3962924478811</v>
+        <v>1305.183147400538</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1682,28 +1682,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>656.9822918913264</v>
+        <v>952.3386787676877</v>
       </c>
       <c r="C45">
-        <v>5.313415061185499</v>
+        <v>7.702141658257591</v>
       </c>
       <c r="D45">
-        <v>52.79759557881555</v>
+        <v>76.53355811294395</v>
       </c>
       <c r="E45">
-        <v>35.49101294029253</v>
+        <v>51.44653788823273</v>
       </c>
       <c r="F45">
-        <v>16.69361364100628</v>
+        <v>24.19848168657171</v>
       </c>
       <c r="G45">
-        <v>126.3882489912753</v>
+        <v>183.2080096247442</v>
       </c>
       <c r="H45">
-        <v>5.528571749758867</v>
+        <v>8.014025310302634</v>
       </c>
       <c r="I45">
-        <v>899.1947498536605</v>
+        <v>1303.441433048741</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1711,28 +1711,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>564.0094602143976</v>
+        <v>817.5684958064353</v>
       </c>
       <c r="C46">
-        <v>8.197840380114769</v>
+        <v>11.88330427274028</v>
       </c>
       <c r="D46">
-        <v>81.51207738483804</v>
+        <v>118.1570721743696</v>
       </c>
       <c r="E46">
-        <v>32.53342852860149</v>
+        <v>47.15932639754667</v>
       </c>
       <c r="F46">
-        <v>18.29300177427633</v>
+        <v>26.5168990936684</v>
       </c>
       <c r="G46">
-        <v>134.6760030234901</v>
+        <v>195.2216496001373</v>
       </c>
       <c r="H46">
-        <v>5.528571749758867</v>
+        <v>8.014025310302634</v>
       </c>
       <c r="I46">
-        <v>844.7503830554772</v>
+        <v>1224.5207726552</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1740,28 +1740,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>419.7279703921099</v>
+        <v>608.42306664665</v>
       </c>
       <c r="C47">
-        <v>6.224286214531584</v>
+        <v>9.022508799673176</v>
       </c>
       <c r="D47">
-        <v>47.23995393894023</v>
+        <v>68.47739410105513</v>
       </c>
       <c r="E47">
-        <v>14.04852595553245</v>
+        <v>20.36425458075879</v>
       </c>
       <c r="F47">
-        <v>16.19380484935938</v>
+        <v>23.47397624685399</v>
       </c>
       <c r="G47">
-        <v>91.16529435436249</v>
+        <v>132.1500397293237</v>
       </c>
       <c r="H47">
-        <v>3.455357343599291</v>
+        <v>5.008765818939146</v>
       </c>
       <c r="I47">
-        <v>598.0551930484353</v>
+        <v>866.9200059232541</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1769,28 +1769,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>440.5600571578946</v>
+        <v>638.6205350280093</v>
       </c>
       <c r="C48">
-        <v>6.224286214531584</v>
+        <v>9.022508799673176</v>
       </c>
       <c r="D48">
-        <v>41.6823122990649</v>
+        <v>60.42123008916624</v>
       </c>
       <c r="E48">
-        <v>14.04852595553245</v>
+        <v>20.36425458075879</v>
       </c>
       <c r="F48">
-        <v>15.19418726606559</v>
+        <v>22.02496536741856</v>
       </c>
       <c r="G48">
-        <v>80.80560181409402</v>
+        <v>117.1329897600824</v>
       </c>
       <c r="H48">
-        <v>6.910714687198581</v>
+        <v>10.01753163787829</v>
       </c>
       <c r="I48">
-        <v>605.4256853943816</v>
+        <v>877.6040152629868</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1798,28 +1798,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>444.4178510034103</v>
+        <v>644.212658802335</v>
       </c>
       <c r="C49">
-        <v>4.857979484512456</v>
+        <v>7.041958087549796</v>
       </c>
       <c r="D49">
-        <v>44.46113311900258</v>
+        <v>64.4493120951107</v>
       </c>
       <c r="E49">
-        <v>13.30912985260969</v>
+        <v>19.29245170808727</v>
       </c>
       <c r="F49">
-        <v>11.99541099952547</v>
+        <v>17.38813055322517</v>
       </c>
       <c r="G49">
-        <v>74.58978628993297</v>
+        <v>108.1227597785376</v>
       </c>
       <c r="H49">
-        <v>4.837500281039007</v>
+        <v>7.012272146514803</v>
       </c>
       <c r="I49">
-        <v>598.4687910300324</v>
+        <v>867.5195431713603</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기대로_가을_배출량/경기대로_가을_배출량_CO.xlsx
+++ b/output/경기대로_가을_배출량/경기대로_가을_배출량_CO.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>834.9040795068453</v>
+        <v>567.4543023882763</v>
       </c>
       <c r="C2">
-        <v>10.56293713132469</v>
+        <v>7.179248812112105</v>
       </c>
       <c r="D2">
-        <v>85.93241612681425</v>
+        <v>58.40517544791875</v>
       </c>
       <c r="E2">
-        <v>19.29245170808727</v>
+        <v>13.11238619391895</v>
       </c>
       <c r="F2">
-        <v>29.12511867665218</v>
+        <v>19.79529661706474</v>
       </c>
       <c r="G2">
-        <v>102.1159397908411</v>
+        <v>69.4045349628212</v>
       </c>
       <c r="H2">
-        <v>13.02279112924177</v>
+        <v>8.851123185021557</v>
       </c>
       <c r="I2">
-        <v>1094.955734069807</v>
+        <v>744.2020676071337</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>862.3054860010423</v>
+        <v>586.0780537727539</v>
       </c>
       <c r="C3">
-        <v>11.66324308250435</v>
+        <v>7.927087230040449</v>
       </c>
       <c r="D3">
-        <v>87.27511012879573</v>
+        <v>59.31775631429252</v>
       </c>
       <c r="E3">
-        <v>19.29245170808727</v>
+        <v>13.11238619391895</v>
       </c>
       <c r="F3">
-        <v>28.11081106104738</v>
+        <v>19.10590817766447</v>
       </c>
       <c r="G3">
-        <v>81.09206983390321</v>
+        <v>55.11536599988741</v>
       </c>
       <c r="H3">
-        <v>12.02103796545395</v>
+        <v>8.170267555404514</v>
       </c>
       <c r="I3">
-        <v>1101.760209780834</v>
+        <v>748.8268252439623</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>873.4897335496937</v>
+        <v>593.6795849500919</v>
       </c>
       <c r="C4">
-        <v>10.78299832156063</v>
+        <v>7.328816495697773</v>
       </c>
       <c r="D4">
-        <v>88.61780413077723</v>
+        <v>60.2303371806662</v>
       </c>
       <c r="E4">
-        <v>18.22064883541576</v>
+        <v>12.38392029425678</v>
       </c>
       <c r="F4">
-        <v>26.22709691778132</v>
+        <v>17.82561536163541</v>
       </c>
       <c r="G4">
-        <v>81.09206983390321</v>
+        <v>55.11536599988741</v>
       </c>
       <c r="H4">
-        <v>11.01928480166612</v>
+        <v>7.48941192578747</v>
       </c>
       <c r="I4">
-        <v>1109.449636390798</v>
+        <v>754.053052208023</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>944.5097054836314</v>
+        <v>641.9493079261873</v>
       </c>
       <c r="C5">
-        <v>9.022508799673176</v>
+        <v>6.132275027012424</v>
       </c>
       <c r="D5">
-        <v>92.6458861367216</v>
+        <v>62.9680797797874</v>
       </c>
       <c r="E5">
-        <v>31.08228330747395</v>
+        <v>21.12551109020275</v>
       </c>
       <c r="F5">
-        <v>25.79239365395068</v>
+        <v>17.53016317332101</v>
       </c>
       <c r="G5">
-        <v>78.08865984005492</v>
+        <v>53.07405614803973</v>
       </c>
       <c r="H5">
-        <v>10.01753163787829</v>
+        <v>6.808556296170428</v>
       </c>
       <c r="I5">
-        <v>1191.158968859384</v>
+        <v>809.5879494407211</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>1078.161463690019</v>
+        <v>732.7876054953759</v>
       </c>
       <c r="C6">
-        <v>8.582386419201313</v>
+        <v>5.833139659841084</v>
       </c>
       <c r="D6">
-        <v>84.58972212483275</v>
+        <v>57.49259458154502</v>
       </c>
       <c r="E6">
-        <v>68.595383850977</v>
+        <v>46.62181757837848</v>
       </c>
       <c r="F6">
-        <v>21.73516319153147</v>
+        <v>14.77260941571995</v>
       </c>
       <c r="G6">
-        <v>39.04432992002746</v>
+        <v>26.53702807401987</v>
       </c>
       <c r="H6">
-        <v>9.01577847409046</v>
+        <v>6.127700666553386</v>
       </c>
       <c r="I6">
-        <v>1309.72422767068</v>
+        <v>890.1724954714338</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>1150.859072756256</v>
+        <v>782.1975581480722</v>
       </c>
       <c r="C7">
-        <v>3.300917853538966</v>
+        <v>2.243515253785033</v>
       </c>
       <c r="D7">
-        <v>57.73584208520333</v>
+        <v>39.24097725407039</v>
       </c>
       <c r="E7">
-        <v>71.81079246899152</v>
+        <v>48.80721527736497</v>
       </c>
       <c r="F7">
-        <v>14.05540553052369</v>
+        <v>9.552954088832236</v>
       </c>
       <c r="G7">
-        <v>39.04432992002746</v>
+        <v>26.53702807401987</v>
       </c>
       <c r="H7">
-        <v>10.01753163787829</v>
+        <v>6.808556296170428</v>
       </c>
       <c r="I7">
-        <v>1346.823892252419</v>
+        <v>915.3878043923152</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>875.7265830594241</v>
+        <v>595.1998911855594</v>
       </c>
       <c r="C8">
-        <v>4.181162614482692</v>
+        <v>2.841785988127709</v>
       </c>
       <c r="D8">
-        <v>79.21894611690692</v>
+        <v>53.84227111605008</v>
       </c>
       <c r="E8">
-        <v>42.87211490686063</v>
+        <v>29.13863598648654</v>
       </c>
       <c r="F8">
-        <v>10.43287833193511</v>
+        <v>7.090852519545573</v>
       </c>
       <c r="G8">
-        <v>36.04091992617919</v>
+        <v>24.49571822217219</v>
       </c>
       <c r="H8">
-        <v>2.003506327575658</v>
+        <v>1.361711259234086</v>
       </c>
       <c r="I8">
-        <v>1050.476111283364</v>
+        <v>713.9708662771756</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>697.3378346584302</v>
+        <v>473.9554689070195</v>
       </c>
       <c r="C9">
-        <v>4.401223804718622</v>
+        <v>2.991353671713377</v>
       </c>
       <c r="D9">
-        <v>49.67967807331449</v>
+        <v>33.76549205582804</v>
       </c>
       <c r="E9">
-        <v>81.45701832303517</v>
+        <v>55.36340837432445</v>
       </c>
       <c r="F9">
-        <v>4.781735902136923</v>
+        <v>3.249974071458388</v>
       </c>
       <c r="G9">
-        <v>42.04773991387572</v>
+        <v>28.57833792586754</v>
       </c>
       <c r="H9">
-        <v>3.005259491363487</v>
+        <v>2.042566888851129</v>
       </c>
       <c r="I9">
-        <v>882.7104901668746</v>
+        <v>599.9466018950625</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>577.6663858878577</v>
+        <v>392.6190853095038</v>
       </c>
       <c r="C10">
-        <v>2.200611902359311</v>
+        <v>1.495676835856689</v>
       </c>
       <c r="D10">
-        <v>41.62351406142567</v>
+        <v>28.29000685758564</v>
       </c>
       <c r="E10">
-        <v>40.72850916151759</v>
+        <v>27.68170418716223</v>
       </c>
       <c r="F10">
-        <v>4.49193372624984</v>
+        <v>3.053005945915456</v>
       </c>
       <c r="G10">
-        <v>51.05796989542056</v>
+        <v>34.7022674814106</v>
       </c>
       <c r="H10">
-        <v>1.001753163787829</v>
+        <v>0.6808556296170428</v>
       </c>
       <c r="I10">
-        <v>718.7706777986185</v>
+        <v>488.5226022470514</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>410.4618850355154</v>
+        <v>278.9761942083018</v>
       </c>
       <c r="C11">
-        <v>4.401223804718622</v>
+        <v>2.991353671713377</v>
       </c>
       <c r="D11">
-        <v>21.48310403170356</v>
+        <v>14.60129386197969</v>
       </c>
       <c r="E11">
-        <v>19.29245170808727</v>
+        <v>13.11238619391895</v>
       </c>
       <c r="F11">
-        <v>4.926636990080467</v>
+        <v>3.348458134229855</v>
       </c>
       <c r="G11">
-        <v>36.04091992617919</v>
+        <v>24.49571822217219</v>
       </c>
       <c r="H11">
-        <v>4.007012655151317</v>
+        <v>2.723422518468171</v>
       </c>
       <c r="I11">
-        <v>500.6132341514358</v>
+        <v>340.2488268107841</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>252.2047822220947</v>
+        <v>171.4145280489702</v>
       </c>
       <c r="C12">
-        <v>4.401223804718622</v>
+        <v>2.991353671713377</v>
       </c>
       <c r="D12">
-        <v>12.08424601783326</v>
+        <v>8.213227797363569</v>
       </c>
       <c r="E12">
-        <v>9.646225854043637</v>
+        <v>6.556193096959474</v>
       </c>
       <c r="F12">
-        <v>2.75312067092732</v>
+        <v>1.871197192657861</v>
       </c>
       <c r="G12">
-        <v>27.0306899446344</v>
+        <v>18.37178866662914</v>
       </c>
       <c r="H12">
-        <v>2.003506327575658</v>
+        <v>1.361711259234086</v>
       </c>
       <c r="I12">
-        <v>310.1237948418276</v>
+        <v>210.7799997335277</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,25 +757,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>178.9479607784263</v>
+        <v>121.6244988374067</v>
       </c>
       <c r="C13">
-        <v>6.601835707077932</v>
+        <v>4.487030507570066</v>
       </c>
       <c r="D13">
-        <v>13.42694001981472</v>
+        <v>9.125808663737303</v>
       </c>
       <c r="E13">
-        <v>6.430817236029091</v>
+        <v>4.370795397972984</v>
       </c>
       <c r="F13">
-        <v>2.898021758870863</v>
+        <v>1.969681255429327</v>
       </c>
       <c r="G13">
-        <v>33.03750993233093</v>
+        <v>22.4544083703245</v>
       </c>
       <c r="I13">
-        <v>241.3430854325499</v>
+        <v>164.0322230324409</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,28 +783,28 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>117.9938116382749</v>
+        <v>80.19615392091511</v>
       </c>
       <c r="C14">
-        <v>7.041958087549796</v>
+        <v>4.786165874741403</v>
       </c>
       <c r="D14">
-        <v>8.056164011888837</v>
+        <v>5.475485198242383</v>
       </c>
       <c r="E14">
-        <v>3.215408618014545</v>
+        <v>2.185397698986492</v>
       </c>
       <c r="F14">
-        <v>3.18782393475795</v>
+        <v>2.166649380972259</v>
       </c>
       <c r="G14">
-        <v>48.05455990157225</v>
+        <v>32.66095762956292</v>
       </c>
       <c r="H14">
-        <v>1.001753163787829</v>
+        <v>0.6808556296170428</v>
       </c>
       <c r="I14">
-        <v>188.5514793558462</v>
+        <v>128.1516653330376</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,28 +812,28 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>90.0331927666458</v>
+        <v>61.19232597757027</v>
       </c>
       <c r="C15">
-        <v>5.281468565662347</v>
+        <v>3.589624406056052</v>
       </c>
       <c r="D15">
-        <v>14.7696340217962</v>
+        <v>10.03838953011103</v>
       </c>
       <c r="E15">
-        <v>4.287211490686063</v>
+        <v>2.913863598648655</v>
       </c>
       <c r="F15">
-        <v>2.463318495040233</v>
+        <v>1.674229067114928</v>
       </c>
       <c r="G15">
-        <v>42.04773991387572</v>
+        <v>28.57833792586754</v>
       </c>
       <c r="H15">
-        <v>2.003506327575658</v>
+        <v>1.361711259234086</v>
       </c>
       <c r="I15">
-        <v>160.886071581282</v>
+        <v>109.3484817646026</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,28 +841,28 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>82.20421948258959</v>
+        <v>55.87125415343376</v>
       </c>
       <c r="C16">
-        <v>1.98055071212338</v>
+        <v>1.346109152271019</v>
       </c>
       <c r="D16">
-        <v>17.45502202575915</v>
+        <v>11.8635512628585</v>
       </c>
       <c r="E16">
-        <v>3.215408618014545</v>
+        <v>2.185397698986492</v>
       </c>
       <c r="F16">
-        <v>2.318417407096692</v>
+        <v>1.57574500434346</v>
       </c>
       <c r="G16">
-        <v>36.04091992617919</v>
+        <v>24.49571822217219</v>
       </c>
       <c r="H16">
-        <v>1.001753163787829</v>
+        <v>0.6808556296170428</v>
       </c>
       <c r="I16">
-        <v>144.2162913355504</v>
+        <v>98.01863112368245</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -870,28 +870,28 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>165.5268637200444</v>
+        <v>112.5026614246012</v>
       </c>
       <c r="C17">
-        <v>2.860795473067105</v>
+        <v>1.944379886613695</v>
       </c>
       <c r="D17">
-        <v>26.85388003962944</v>
+        <v>18.25161732747461</v>
       </c>
       <c r="E17">
-        <v>3.215408618014545</v>
+        <v>2.185397698986492</v>
       </c>
       <c r="F17">
-        <v>5.361340253911096</v>
+        <v>3.643910322544254</v>
       </c>
       <c r="G17">
-        <v>54.06137988926879</v>
+        <v>36.74357733325827</v>
       </c>
       <c r="H17">
-        <v>3.005259491363487</v>
+        <v>2.042566888851129</v>
       </c>
       <c r="I17">
-        <v>260.8849274852989</v>
+        <v>177.3141108823297</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,28 +899,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>364.6064700860437</v>
+        <v>247.8099163812163</v>
       </c>
       <c r="C18">
-        <v>1.760489521887449</v>
+        <v>1.196541468685351</v>
       </c>
       <c r="D18">
-        <v>42.96620806340712</v>
+        <v>29.20258772395938</v>
       </c>
       <c r="E18">
-        <v>51.44653788823273</v>
+        <v>34.96636318378387</v>
       </c>
       <c r="F18">
-        <v>12.31659247520117</v>
+        <v>8.371145335574642</v>
       </c>
       <c r="G18">
-        <v>99.11252979699282</v>
+        <v>67.36322511097349</v>
       </c>
       <c r="H18">
-        <v>3.005259491363487</v>
+        <v>2.042566888851129</v>
       </c>
       <c r="I18">
-        <v>575.2140873231284</v>
+        <v>390.9523460930442</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,28 +928,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>641.9758092926047</v>
+        <v>436.3278895791969</v>
       </c>
       <c r="C19">
-        <v>3.080856663303035</v>
+        <v>2.093947570199364</v>
       </c>
       <c r="D19">
-        <v>79.21894611690692</v>
+        <v>53.84227111605008</v>
       </c>
       <c r="E19">
-        <v>106.1084843944801</v>
+        <v>72.11812406655419</v>
       </c>
       <c r="F19">
-        <v>20.86575666387021</v>
+        <v>14.18170503909115</v>
       </c>
       <c r="G19">
-        <v>177.2011896370477</v>
+        <v>120.4372812590132</v>
       </c>
       <c r="H19">
-        <v>10.01753163787829</v>
+        <v>6.808556296170428</v>
       </c>
       <c r="I19">
-        <v>1038.468574406091</v>
+        <v>705.8097749262754</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -957,28 +957,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>869.5752469076651</v>
+        <v>591.0190490380237</v>
       </c>
       <c r="C20">
-        <v>3.300917853538966</v>
+        <v>2.243515253785033</v>
       </c>
       <c r="D20">
-        <v>69.82008810303658</v>
+        <v>47.45420505143399</v>
       </c>
       <c r="E20">
-        <v>92.17504704975033</v>
+        <v>62.64806737094608</v>
       </c>
       <c r="F20">
-        <v>20.28615231209604</v>
+        <v>13.78776878800529</v>
       </c>
       <c r="G20">
-        <v>153.1739096862616</v>
+        <v>104.1068024442318</v>
       </c>
       <c r="H20">
-        <v>10.01753163787829</v>
+        <v>6.808556296170428</v>
       </c>
       <c r="I20">
-        <v>1218.348893550227</v>
+        <v>828.0679642425964</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -986,28 +986,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>689.5088613743743</v>
+        <v>468.6343970828831</v>
       </c>
       <c r="C21">
-        <v>3.520979043774898</v>
+        <v>2.393082937370702</v>
       </c>
       <c r="D21">
-        <v>34.91004405151829</v>
+        <v>23.72710252571699</v>
       </c>
       <c r="E21">
-        <v>38.58490341617455</v>
+        <v>26.22477238783789</v>
       </c>
       <c r="F21">
-        <v>15.93911967378975</v>
+        <v>10.8332469048613</v>
       </c>
       <c r="G21">
-        <v>111.1261697723858</v>
+        <v>75.52846451836423</v>
       </c>
       <c r="H21">
-        <v>4.007012655151317</v>
+        <v>2.723422518468171</v>
       </c>
       <c r="I21">
-        <v>897.5970899871691</v>
+        <v>610.0644888755023</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1015,28 +1015,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>816.4500710515703</v>
+        <v>554.9117759456683</v>
       </c>
       <c r="C22">
-        <v>11.00305951179656</v>
+        <v>7.478384179283442</v>
       </c>
       <c r="D22">
-        <v>108.7582141604993</v>
+        <v>73.91905017627214</v>
       </c>
       <c r="E22">
-        <v>39.6567062888461</v>
+        <v>26.95323828750006</v>
       </c>
       <c r="F22">
-        <v>30.13942629225697</v>
+        <v>20.48468505646499</v>
       </c>
       <c r="G22">
-        <v>201.2284695878338</v>
+        <v>136.7677600737947</v>
       </c>
       <c r="H22">
-        <v>4.007012655151317</v>
+        <v>2.723422518468171</v>
       </c>
       <c r="I22">
-        <v>1211.242959547954</v>
+        <v>823.2383162374517</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1044,28 +1044,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>733.6866391915481</v>
+        <v>498.6604452333676</v>
       </c>
       <c r="C23">
-        <v>11.44318189226842</v>
+        <v>7.777519546454778</v>
       </c>
       <c r="D23">
-        <v>88.61780413077723</v>
+        <v>60.2303371806662</v>
       </c>
       <c r="E23">
-        <v>24.65146607144486</v>
+        <v>16.75471569222977</v>
       </c>
       <c r="F23">
-        <v>32.60274478729721</v>
+        <v>22.15891412357993</v>
       </c>
       <c r="G23">
-        <v>153.1739096862616</v>
+        <v>104.1068024442318</v>
       </c>
       <c r="H23">
-        <v>5.008765818939146</v>
+        <v>3.404278148085214</v>
       </c>
       <c r="I23">
-        <v>1049.184511578536</v>
+        <v>713.0930123686153</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1073,28 +1073,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>770.0354437246659</v>
+        <v>523.365421559716</v>
       </c>
       <c r="C24">
-        <v>11.44318189226842</v>
+        <v>7.777519546454778</v>
       </c>
       <c r="D24">
-        <v>79.21894611690692</v>
+        <v>53.84227111605008</v>
       </c>
       <c r="E24">
-        <v>23.57966319877334</v>
+        <v>16.0262497925676</v>
       </c>
       <c r="F24">
-        <v>30.42922846814407</v>
+        <v>20.68165318200794</v>
       </c>
       <c r="G24">
-        <v>135.153449723172</v>
+        <v>91.8589433331457</v>
       </c>
       <c r="H24">
-        <v>10.01753163787829</v>
+        <v>6.808556296170428</v>
       </c>
       <c r="I24">
-        <v>1059.877444761809</v>
+        <v>720.3606148261124</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1102,28 +1102,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>776.7459922538571</v>
+        <v>527.9263402661188</v>
       </c>
       <c r="C25">
-        <v>8.802447609437245</v>
+        <v>5.982707343426754</v>
       </c>
       <c r="D25">
-        <v>83.24702812285133</v>
+        <v>56.58001371517128</v>
       </c>
       <c r="E25">
-        <v>22.50786032610182</v>
+        <v>15.29778389290544</v>
       </c>
       <c r="F25">
-        <v>24.05358059862817</v>
+        <v>16.34835442006341</v>
       </c>
       <c r="G25">
-        <v>126.1432197416272</v>
+        <v>85.73501377760266</v>
       </c>
       <c r="H25">
-        <v>7.012272146514803</v>
+        <v>4.7659894073193</v>
       </c>
       <c r="I25">
-        <v>1048.512400799018</v>
+        <v>712.6362028226077</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1131,28 +1131,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>799.1144873511602</v>
+        <v>543.1294026207946</v>
       </c>
       <c r="C26">
-        <v>9.462631180145038</v>
+        <v>6.43141039418376</v>
       </c>
       <c r="D26">
-        <v>73.84817010898098</v>
+        <v>50.19194765055517</v>
       </c>
       <c r="E26">
-        <v>12.86163447205818</v>
+        <v>8.741590795945967</v>
       </c>
       <c r="F26">
-        <v>30.71903064403115</v>
+        <v>20.87862130755086</v>
       </c>
       <c r="G26">
-        <v>168.1909596555029</v>
+        <v>114.3133517034702</v>
       </c>
       <c r="H26">
-        <v>8.014025310302634</v>
+        <v>5.446845036936343</v>
       </c>
       <c r="I26">
-        <v>1102.210938722181</v>
+        <v>749.1331695094369</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1160,28 +1160,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>838.8185661488736</v>
+        <v>570.1148383003443</v>
       </c>
       <c r="C27">
-        <v>7.48208046802166</v>
+        <v>5.085301241912741</v>
       </c>
       <c r="D27">
-        <v>103.3874381525733</v>
+        <v>70.2687267107773</v>
       </c>
       <c r="E27">
-        <v>25.72326894411636</v>
+        <v>17.48318159189193</v>
       </c>
       <c r="F27">
-        <v>25.79239365395068</v>
+        <v>17.53016317332101</v>
       </c>
       <c r="G27">
-        <v>66.07501986466187</v>
+        <v>44.908816740649</v>
       </c>
       <c r="H27">
-        <v>7.012272146514803</v>
+        <v>4.7659894073193</v>
       </c>
       <c r="I27">
-        <v>1074.291039378712</v>
+        <v>730.1570171662157</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1189,28 +1189,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>811.97637203211</v>
+        <v>551.8711634747333</v>
       </c>
       <c r="C28">
-        <v>11.44318189226842</v>
+        <v>7.777519546454778</v>
       </c>
       <c r="D28">
-        <v>102.0447441505919</v>
+        <v>69.35614584440353</v>
       </c>
       <c r="E28">
-        <v>23.57966319877334</v>
+        <v>16.0262497925676</v>
       </c>
       <c r="F28">
-        <v>24.34338277451526</v>
+        <v>16.54532254560634</v>
       </c>
       <c r="G28">
-        <v>135.153449723172</v>
+        <v>91.8589433331457</v>
       </c>
       <c r="H28">
-        <v>16.02805062060527</v>
+        <v>10.89369007387269</v>
       </c>
       <c r="I28">
-        <v>1124.568844392036</v>
+        <v>764.3290346107839</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1218,28 +1218,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>893.0621667598346</v>
+        <v>606.9822645104337</v>
       </c>
       <c r="C29">
-        <v>9.902753560616901</v>
+        <v>6.730545761355097</v>
       </c>
       <c r="D29">
-        <v>99.35935614662898</v>
+        <v>67.53098411165608</v>
       </c>
       <c r="E29">
-        <v>31.08228330747395</v>
+        <v>21.12551109020275</v>
       </c>
       <c r="F29">
-        <v>24.19848168657171</v>
+        <v>16.44683848283487</v>
       </c>
       <c r="G29">
-        <v>81.09206983390321</v>
+        <v>55.11536599988741</v>
       </c>
       <c r="H29">
-        <v>25.04382909469574</v>
+        <v>17.02139074042607</v>
       </c>
       <c r="I29">
-        <v>1163.740940389725</v>
+        <v>790.952900696796</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1247,28 +1247,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>1118.983967242598</v>
+        <v>760.533194292659</v>
       </c>
       <c r="C30">
-        <v>4.841346185190484</v>
+        <v>3.290489038884715</v>
       </c>
       <c r="D30">
-        <v>63.1066180931292</v>
+        <v>42.89130071956536</v>
       </c>
       <c r="E30">
-        <v>51.44653788823273</v>
+        <v>34.96636318378387</v>
       </c>
       <c r="F30">
-        <v>21.01065775181376</v>
+        <v>14.28018910186262</v>
       </c>
       <c r="G30">
-        <v>63.0716098708136</v>
+        <v>42.86750688880133</v>
       </c>
       <c r="H30">
-        <v>13.02279112924177</v>
+        <v>8.851123185021557</v>
       </c>
       <c r="I30">
-        <v>1335.483528161019</v>
+        <v>907.6801664105786</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1276,28 +1276,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>1164.280169814636</v>
+        <v>791.319395560878</v>
       </c>
       <c r="C31">
-        <v>6.381774516842002</v>
+        <v>4.337462823984396</v>
       </c>
       <c r="D31">
-        <v>79.21894611690692</v>
+        <v>53.84227111605008</v>
       </c>
       <c r="E31">
-        <v>75.02620108700609</v>
+        <v>50.99261297635146</v>
       </c>
       <c r="F31">
-        <v>16.08402076173329</v>
+        <v>10.93173096763276</v>
       </c>
       <c r="G31">
-        <v>57.06478988311707</v>
+        <v>38.78488718510597</v>
       </c>
       <c r="H31">
-        <v>4.007012655151317</v>
+        <v>2.723422518468171</v>
       </c>
       <c r="I31">
-        <v>1402.062914835393</v>
+        <v>952.9317831484708</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1305,28 +1305,28 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>921.0227856314634</v>
+        <v>625.986092453778</v>
       </c>
       <c r="C32">
-        <v>4.621284994954554</v>
+        <v>3.140921355299045</v>
       </c>
       <c r="D32">
-        <v>67.13470009907363</v>
+        <v>45.62904331868653</v>
       </c>
       <c r="E32">
-        <v>50.37473501556123</v>
+        <v>34.23789728412169</v>
       </c>
       <c r="F32">
-        <v>11.30228485959636</v>
+        <v>7.681756896174374</v>
       </c>
       <c r="G32">
-        <v>45.05114990772401</v>
+        <v>30.61964777771524</v>
       </c>
       <c r="H32">
-        <v>9.01577847409046</v>
+        <v>6.127700666553386</v>
       </c>
       <c r="I32">
-        <v>1108.522718982464</v>
+        <v>753.4230597523284</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1334,28 +1334,28 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>771.1538684795316</v>
+        <v>524.1255746774498</v>
       </c>
       <c r="C33">
-        <v>6.601835707077932</v>
+        <v>4.487030507570066</v>
       </c>
       <c r="D33">
-        <v>52.36506607727743</v>
+        <v>35.59065378857549</v>
       </c>
       <c r="E33">
-        <v>68.595383850977</v>
+        <v>46.62181757837848</v>
       </c>
       <c r="F33">
-        <v>7.245054397177157</v>
+        <v>4.924203138573316</v>
       </c>
       <c r="G33">
-        <v>48.05455990157225</v>
+        <v>32.66095762956292</v>
       </c>
       <c r="H33">
-        <v>1.001753163787829</v>
+        <v>0.6808556296170428</v>
       </c>
       <c r="I33">
-        <v>955.0175215774012</v>
+        <v>649.091092949727</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1363,28 +1363,28 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>633.587623631116</v>
+        <v>430.6267411961933</v>
       </c>
       <c r="C34">
-        <v>4.401223804718622</v>
+        <v>2.991353671713377</v>
       </c>
       <c r="D34">
-        <v>34.91004405151829</v>
+        <v>23.72710252571699</v>
       </c>
       <c r="E34">
-        <v>33.22588905281697</v>
+        <v>22.58244288952708</v>
       </c>
       <c r="F34">
-        <v>4.636834814193383</v>
+        <v>3.15149000868692</v>
       </c>
       <c r="G34">
-        <v>24.02727995078613</v>
+        <v>16.33047881478146</v>
       </c>
       <c r="H34">
-        <v>4.007012655151317</v>
+        <v>2.723422518468171</v>
       </c>
       <c r="I34">
-        <v>738.7959079603008</v>
+        <v>502.1330316250874</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1392,28 +1392,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>447.9291143234988</v>
+        <v>304.4413236523838</v>
       </c>
       <c r="C35">
-        <v>4.181162614482692</v>
+        <v>2.841785988127709</v>
       </c>
       <c r="D35">
-        <v>33.56735004953681</v>
+        <v>22.81452165934327</v>
       </c>
       <c r="E35">
-        <v>18.22064883541576</v>
+        <v>12.38392029425678</v>
       </c>
       <c r="F35">
-        <v>3.477626110645036</v>
+        <v>2.363617506515192</v>
       </c>
       <c r="G35">
-        <v>39.04432992002746</v>
+        <v>26.53702807401987</v>
       </c>
       <c r="H35">
-        <v>1.001753163787829</v>
+        <v>0.6808556296170428</v>
       </c>
       <c r="I35">
-        <v>547.4219850173944</v>
+        <v>372.0630528042636</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1421,28 +1421,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>281.8430382260215</v>
+        <v>191.5585856689157</v>
       </c>
       <c r="C36">
-        <v>7.702141658257591</v>
+        <v>5.234868925498409</v>
       </c>
       <c r="D36">
-        <v>13.42694001981472</v>
+        <v>9.125808663737303</v>
       </c>
       <c r="E36">
-        <v>9.646225854043637</v>
+        <v>6.556193096959474</v>
       </c>
       <c r="F36">
-        <v>2.898021758870863</v>
+        <v>1.969681255429327</v>
       </c>
       <c r="G36">
-        <v>27.0306899446344</v>
+        <v>18.37178866662914</v>
       </c>
       <c r="H36">
-        <v>1.001753163787829</v>
+        <v>0.6808556296170428</v>
       </c>
       <c r="I36">
-        <v>343.5488106254305</v>
+        <v>233.4977819067863</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1450,28 +1450,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>214.178340556679</v>
+        <v>145.5693220460211</v>
       </c>
       <c r="C37">
-        <v>9.242569989909109</v>
+        <v>6.28184271059809</v>
       </c>
       <c r="D37">
-        <v>13.42694001981472</v>
+        <v>9.125808663737303</v>
       </c>
       <c r="E37">
-        <v>4.287211490686063</v>
+        <v>2.913863598648655</v>
       </c>
       <c r="F37">
-        <v>2.463318495040233</v>
+        <v>1.674229067114928</v>
       </c>
       <c r="G37">
-        <v>30.03409993848266</v>
+        <v>20.41309851847682</v>
       </c>
       <c r="H37">
-        <v>4.007012655151317</v>
+        <v>2.723422518468171</v>
       </c>
       <c r="I37">
-        <v>277.6394931457631</v>
+        <v>188.7015871230651</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1479,28 +1479,28 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>120.2306611480052</v>
+        <v>81.71646015638269</v>
       </c>
       <c r="C38">
-        <v>6.381774516842002</v>
+        <v>4.337462823984396</v>
       </c>
       <c r="D38">
-        <v>10.74155201585178</v>
+        <v>7.300646930989844</v>
       </c>
       <c r="E38">
-        <v>2.143605745343031</v>
+        <v>1.456931799324327</v>
       </c>
       <c r="F38">
-        <v>2.898021758870863</v>
+        <v>1.969681255429327</v>
       </c>
       <c r="G38">
-        <v>30.03409993848266</v>
+        <v>20.41309851847682</v>
       </c>
       <c r="H38">
-        <v>2.003506327575658</v>
+        <v>1.361711259234086</v>
       </c>
       <c r="I38">
-        <v>174.4332214509712</v>
+        <v>118.5559927438215</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1508,28 +1508,28 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>80.52658235029187</v>
+        <v>54.73102447683303</v>
       </c>
       <c r="C39">
-        <v>4.621284994954554</v>
+        <v>3.140921355299045</v>
       </c>
       <c r="D39">
-        <v>16.11232802377767</v>
+        <v>10.95097039648477</v>
       </c>
       <c r="E39">
-        <v>1.071802872671516</v>
+        <v>0.7284658996621637</v>
       </c>
       <c r="F39">
-        <v>2.75312067092732</v>
+        <v>1.871197192657861</v>
       </c>
       <c r="G39">
-        <v>30.03409993848266</v>
+        <v>20.41309851847682</v>
       </c>
       <c r="H39">
-        <v>1.001753163787829</v>
+        <v>0.6808556296170428</v>
       </c>
       <c r="I39">
-        <v>136.1209720148934</v>
+        <v>92.51653346903073</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1537,28 +1537,28 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>81.08579472772448</v>
+        <v>55.11110103569995</v>
       </c>
       <c r="C40">
-        <v>2.420673092595242</v>
+        <v>1.645244519442357</v>
       </c>
       <c r="D40">
-        <v>14.7696340217962</v>
+        <v>10.03838953011103</v>
       </c>
       <c r="E40">
-        <v>3.215408618014545</v>
+        <v>2.185397698986492</v>
       </c>
       <c r="F40">
-        <v>3.042922846814407</v>
+        <v>2.068165318200793</v>
       </c>
       <c r="G40">
-        <v>39.04432992002746</v>
+        <v>26.53702807401987</v>
       </c>
       <c r="H40">
-        <v>2.003506327575658</v>
+        <v>1.361711259234086</v>
       </c>
       <c r="I40">
-        <v>145.582269554548</v>
+        <v>98.94703743569457</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1566,28 +1566,28 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>151.5465542842299</v>
+        <v>103.0007474529288</v>
       </c>
       <c r="C41">
-        <v>2.420673092595242</v>
+        <v>1.645244519442357</v>
       </c>
       <c r="D41">
-        <v>18.79771602774062</v>
+        <v>12.77613212923223</v>
       </c>
       <c r="E41">
-        <v>5.359014363357579</v>
+        <v>3.642329498310818</v>
       </c>
       <c r="F41">
-        <v>7.389955485120701</v>
+        <v>5.022687201344782</v>
       </c>
       <c r="G41">
-        <v>60.06819987696532</v>
+        <v>40.82619703695364</v>
       </c>
       <c r="H41">
-        <v>1.001753163787829</v>
+        <v>0.6808556296170428</v>
       </c>
       <c r="I41">
-        <v>246.5838662937972</v>
+        <v>167.5941934678297</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1595,28 +1595,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>393.685513712538</v>
+        <v>267.5738974422948</v>
       </c>
       <c r="C42">
-        <v>2.420673092595242</v>
+        <v>1.645244519442357</v>
       </c>
       <c r="D42">
-        <v>34.91004405151829</v>
+        <v>23.72710252571699</v>
       </c>
       <c r="E42">
-        <v>45.01572065220365</v>
+        <v>30.59556778581088</v>
       </c>
       <c r="F42">
-        <v>14.63500988229786</v>
+        <v>9.946890339918101</v>
       </c>
       <c r="G42">
-        <v>111.1261697723858</v>
+        <v>75.52846451836423</v>
       </c>
       <c r="H42">
-        <v>8.014025310302634</v>
+        <v>5.446845036936343</v>
       </c>
       <c r="I42">
-        <v>609.8071564738415</v>
+        <v>414.4640121684837</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1624,28 +1624,28 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>586.0545715493462</v>
+        <v>398.3202336925071</v>
       </c>
       <c r="C43">
-        <v>1.100305951179656</v>
+        <v>0.7478384179283443</v>
       </c>
       <c r="D43">
-        <v>49.67967807331449</v>
+        <v>33.76549205582804</v>
       </c>
       <c r="E43">
-        <v>87.88783555906427</v>
+        <v>59.73420377229741</v>
       </c>
       <c r="F43">
-        <v>17.82283381705581</v>
+        <v>12.11353972089036</v>
       </c>
       <c r="G43">
-        <v>222.2523395447716</v>
+        <v>151.0569290367285</v>
       </c>
       <c r="H43">
-        <v>9.01577847409046</v>
+        <v>6.127700666553386</v>
       </c>
       <c r="I43">
-        <v>973.8133429688223</v>
+        <v>661.8659373627331</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1653,28 +1653,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>938.3583693318734</v>
+        <v>637.7684657786517</v>
       </c>
       <c r="C44">
-        <v>3.74104023401083</v>
+        <v>2.54265062095637</v>
       </c>
       <c r="D44">
-        <v>63.1066180931292</v>
+        <v>42.89130071956536</v>
       </c>
       <c r="E44">
-        <v>98.60586428577943</v>
+        <v>67.01886276891908</v>
       </c>
       <c r="F44">
-        <v>21.1555588397573</v>
+        <v>14.37867316463409</v>
       </c>
       <c r="G44">
-        <v>162.1841396678064</v>
+        <v>110.2307319997748</v>
       </c>
       <c r="H44">
-        <v>18.03155694818092</v>
+        <v>12.25540133310677</v>
       </c>
       <c r="I44">
-        <v>1305.183147400538</v>
+        <v>887.0860863856082</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1682,28 +1682,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>952.3386787676877</v>
+        <v>647.2703797503244</v>
       </c>
       <c r="C45">
-        <v>7.702141658257591</v>
+        <v>5.234868925498409</v>
       </c>
       <c r="D45">
-        <v>76.53355811294395</v>
+        <v>52.01710938330263</v>
       </c>
       <c r="E45">
-        <v>51.44653788823273</v>
+        <v>34.96636318378387</v>
       </c>
       <c r="F45">
-        <v>24.19848168657171</v>
+        <v>16.44683848283487</v>
       </c>
       <c r="G45">
-        <v>183.2080096247442</v>
+        <v>124.5199009627086</v>
       </c>
       <c r="H45">
-        <v>8.014025310302634</v>
+        <v>5.446845036936343</v>
       </c>
       <c r="I45">
-        <v>1303.441433048741</v>
+        <v>885.9023057253892</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1711,28 +1711,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>817.5684958064353</v>
+        <v>555.6719290634024</v>
       </c>
       <c r="C46">
-        <v>11.88330427274028</v>
+        <v>8.076654913626117</v>
       </c>
       <c r="D46">
-        <v>118.1570721743696</v>
+        <v>80.30711624088828</v>
       </c>
       <c r="E46">
-        <v>47.15932639754667</v>
+        <v>32.0524995851352</v>
       </c>
       <c r="F46">
-        <v>26.5168990936684</v>
+        <v>18.02258348717834</v>
       </c>
       <c r="G46">
-        <v>195.2216496001373</v>
+        <v>132.6851403700994</v>
       </c>
       <c r="H46">
-        <v>8.014025310302634</v>
+        <v>5.446845036936343</v>
       </c>
       <c r="I46">
-        <v>1224.5207726552</v>
+        <v>832.2627686972662</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1740,28 +1740,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>608.42306664665</v>
+        <v>413.523296047183</v>
       </c>
       <c r="C47">
-        <v>9.022508799673176</v>
+        <v>6.132275027012424</v>
       </c>
       <c r="D47">
-        <v>68.47739410105513</v>
+        <v>46.54162418506024</v>
       </c>
       <c r="E47">
-        <v>20.36425458075879</v>
+        <v>13.84085209358111</v>
       </c>
       <c r="F47">
-        <v>23.47397624685399</v>
+        <v>15.95441816897755</v>
       </c>
       <c r="G47">
-        <v>132.1500397293237</v>
+        <v>89.817633481298</v>
       </c>
       <c r="H47">
-        <v>5.008765818939146</v>
+        <v>3.404278148085214</v>
       </c>
       <c r="I47">
-        <v>866.9200059232541</v>
+        <v>589.2143771511976</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1769,28 +1769,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>638.6205350280093</v>
+        <v>434.0474302259956</v>
       </c>
       <c r="C48">
-        <v>9.022508799673176</v>
+        <v>6.132275027012424</v>
       </c>
       <c r="D48">
-        <v>60.42123008916624</v>
+        <v>41.06613898681788</v>
       </c>
       <c r="E48">
-        <v>20.36425458075879</v>
+        <v>13.84085209358111</v>
       </c>
       <c r="F48">
-        <v>22.02496536741856</v>
+        <v>14.96957754126289</v>
       </c>
       <c r="G48">
-        <v>117.1329897600824</v>
+        <v>79.6110842220596</v>
       </c>
       <c r="H48">
-        <v>10.01753163787829</v>
+        <v>6.808556296170428</v>
       </c>
       <c r="I48">
-        <v>877.6040152629868</v>
+        <v>596.4759143928999</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1798,28 +1798,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>644.212658802335</v>
+        <v>437.8481958146643</v>
       </c>
       <c r="C49">
-        <v>7.041958087549796</v>
+        <v>4.786165874741403</v>
       </c>
       <c r="D49">
-        <v>64.4493120951107</v>
+        <v>43.80388158593907</v>
       </c>
       <c r="E49">
-        <v>19.29245170808727</v>
+        <v>13.11238619391895</v>
       </c>
       <c r="F49">
-        <v>17.38813055322517</v>
+        <v>11.81808753257596</v>
       </c>
       <c r="G49">
-        <v>108.1227597785376</v>
+        <v>73.48715466651655</v>
       </c>
       <c r="H49">
-        <v>7.012272146514803</v>
+        <v>4.7659894073193</v>
       </c>
       <c r="I49">
-        <v>867.5195431713603</v>
+        <v>589.6218610756756</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기대로_가을_배출량/경기대로_가을_배출량_CO.xlsx
+++ b/output/경기대로_가을_배출량/경기대로_가을_배출량_CO.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>567.4543023882763</v>
+        <v>500.9788816395754</v>
       </c>
       <c r="C2">
-        <v>7.179248812112105</v>
+        <v>10.56293713132469</v>
       </c>
       <c r="D2">
-        <v>58.40517544791875</v>
+        <v>85.64894539649787</v>
       </c>
       <c r="E2">
-        <v>13.11238619391895</v>
+        <v>19.29245170808727</v>
       </c>
       <c r="F2">
-        <v>19.79529661706474</v>
+        <v>28.58923682298646</v>
       </c>
       <c r="G2">
-        <v>69.4045349628212</v>
+        <v>102.0110676867836</v>
       </c>
       <c r="H2">
-        <v>8.851123185021557</v>
+        <v>13.02279112924177</v>
       </c>
       <c r="I2">
-        <v>744.2020676071337</v>
+        <v>760.106311514497</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>586.0780537727539</v>
+        <v>517.4209212915107</v>
       </c>
       <c r="C3">
-        <v>7.927087230040449</v>
+        <v>11.66324308250435</v>
       </c>
       <c r="D3">
-        <v>59.31775631429252</v>
+        <v>86.98721016831817</v>
       </c>
       <c r="E3">
-        <v>13.11238619391895</v>
+        <v>19.29245170808727</v>
       </c>
       <c r="F3">
-        <v>19.10590817766447</v>
+        <v>27.59359175949936</v>
       </c>
       <c r="G3">
-        <v>55.11536599988741</v>
+        <v>81.00878904538695</v>
       </c>
       <c r="H3">
-        <v>8.170267555404514</v>
+        <v>12.02103796545395</v>
       </c>
       <c r="I3">
-        <v>748.8268252439623</v>
+        <v>755.9872450207607</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>593.6795849500919</v>
+        <v>524.131957884137</v>
       </c>
       <c r="C4">
-        <v>7.328816495697773</v>
+        <v>10.78299832156063</v>
       </c>
       <c r="D4">
-        <v>60.2303371806662</v>
+        <v>88.32547494013843</v>
       </c>
       <c r="E4">
-        <v>12.38392029425678</v>
+        <v>18.22064883541576</v>
       </c>
       <c r="F4">
-        <v>17.82561536163541</v>
+        <v>25.74453664159478</v>
       </c>
       <c r="G4">
-        <v>55.11536599988741</v>
+        <v>81.00878904538695</v>
       </c>
       <c r="H4">
-        <v>7.48941192578747</v>
+        <v>11.01928480166612</v>
       </c>
       <c r="I4">
-        <v>754.053052208023</v>
+        <v>759.2336904698997</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>641.9493079261873</v>
+        <v>566.7470402473156</v>
       </c>
       <c r="C5">
-        <v>6.132275027012424</v>
+        <v>9.022508799673176</v>
       </c>
       <c r="D5">
-        <v>62.9680797797874</v>
+        <v>92.34026925559925</v>
       </c>
       <c r="E5">
-        <v>21.12551109020275</v>
+        <v>31.08228330747395</v>
       </c>
       <c r="F5">
-        <v>17.53016317332101</v>
+        <v>25.31783161438602</v>
       </c>
       <c r="G5">
-        <v>53.07405614803973</v>
+        <v>78.00846352518744</v>
       </c>
       <c r="H5">
-        <v>6.808556296170428</v>
+        <v>10.01753163787829</v>
       </c>
       <c r="I5">
-        <v>809.5879494407211</v>
+        <v>812.5359283875135</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>732.7876054953759</v>
+        <v>646.9439275292037</v>
       </c>
       <c r="C6">
-        <v>5.833139659841084</v>
+        <v>8.582386419201313</v>
       </c>
       <c r="D6">
-        <v>57.49259458154502</v>
+        <v>84.31068062467759</v>
       </c>
       <c r="E6">
-        <v>46.62181757837848</v>
+        <v>68.595383850977</v>
       </c>
       <c r="F6">
-        <v>14.77260941571995</v>
+        <v>21.33525136043766</v>
       </c>
       <c r="G6">
-        <v>26.53702807401987</v>
+        <v>39.00423176259372</v>
       </c>
       <c r="H6">
-        <v>6.127700666553386</v>
+        <v>9.01577847409046</v>
       </c>
       <c r="I6">
-        <v>890.1724954714338</v>
+        <v>877.7876400211813</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>782.1975581480722</v>
+        <v>690.5656653812765</v>
       </c>
       <c r="C7">
-        <v>2.243515253785033</v>
+        <v>3.300917853538966</v>
       </c>
       <c r="D7">
-        <v>39.24097725407039</v>
+        <v>57.54538518827201</v>
       </c>
       <c r="E7">
-        <v>48.80721527736497</v>
+        <v>71.81079246899152</v>
       </c>
       <c r="F7">
-        <v>9.552954088832236</v>
+        <v>13.79679587974968</v>
       </c>
       <c r="G7">
-        <v>26.53702807401987</v>
+        <v>39.00423176259372</v>
       </c>
       <c r="H7">
-        <v>6.808556296170428</v>
+        <v>10.01753163787829</v>
       </c>
       <c r="I7">
-        <v>915.3878043923152</v>
+        <v>886.0413201723006</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>595.1998911855594</v>
+        <v>525.4741652026626</v>
       </c>
       <c r="C8">
-        <v>2.841785988127709</v>
+        <v>4.181162614482692</v>
       </c>
       <c r="D8">
-        <v>53.84227111605008</v>
+        <v>78.95762153739651</v>
       </c>
       <c r="E8">
-        <v>29.13863598648654</v>
+        <v>42.87211490686063</v>
       </c>
       <c r="F8">
-        <v>7.090852519545573</v>
+        <v>10.24092065301007</v>
       </c>
       <c r="G8">
-        <v>24.49571822217219</v>
+        <v>36.00390624239419</v>
       </c>
       <c r="H8">
-        <v>1.361711259234086</v>
+        <v>2.003506327575658</v>
       </c>
       <c r="I8">
-        <v>713.9708662771756</v>
+        <v>699.7333974843824</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>473.9554689070195</v>
+        <v>418.4331315502682</v>
       </c>
       <c r="C9">
-        <v>2.991353671713377</v>
+        <v>4.401223804718622</v>
       </c>
       <c r="D9">
-        <v>33.76549205582804</v>
+        <v>49.51579655735031</v>
       </c>
       <c r="E9">
-        <v>55.36340837432445</v>
+        <v>81.45701832303517</v>
       </c>
       <c r="F9">
-        <v>3.249974071458388</v>
+        <v>4.693755299296285</v>
       </c>
       <c r="G9">
-        <v>28.57833792586754</v>
+        <v>42.00455728279323</v>
       </c>
       <c r="H9">
-        <v>2.042566888851129</v>
+        <v>3.005259491363487</v>
       </c>
       <c r="I9">
-        <v>599.9466018950625</v>
+        <v>603.5107423088253</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>392.6190853095038</v>
+        <v>346.6250400091635</v>
       </c>
       <c r="C10">
-        <v>1.495676835856689</v>
+        <v>2.200611902359311</v>
       </c>
       <c r="D10">
-        <v>28.29000685758564</v>
+        <v>41.48620792642869</v>
       </c>
       <c r="E10">
-        <v>27.68170418716223</v>
+        <v>40.72850916151759</v>
       </c>
       <c r="F10">
-        <v>3.053005945915456</v>
+        <v>4.409285281157116</v>
       </c>
       <c r="G10">
-        <v>34.7022674814106</v>
+        <v>51.00553384339179</v>
       </c>
       <c r="H10">
-        <v>0.6808556296170428</v>
+        <v>1.001753163787829</v>
       </c>
       <c r="I10">
-        <v>488.5226022470514</v>
+        <v>487.4569412878058</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>278.9761942083018</v>
+        <v>246.295042949396</v>
       </c>
       <c r="C11">
-        <v>2.991353671713377</v>
+        <v>4.401223804718622</v>
       </c>
       <c r="D11">
-        <v>14.60129386197969</v>
+        <v>21.41223634912447</v>
       </c>
       <c r="E11">
-        <v>13.11238619391895</v>
+        <v>19.29245170808727</v>
       </c>
       <c r="F11">
-        <v>3.348458134229855</v>
+        <v>4.835990308365869</v>
       </c>
       <c r="G11">
-        <v>24.49571822217219</v>
+        <v>36.00390624239419</v>
       </c>
       <c r="H11">
-        <v>2.723422518468171</v>
+        <v>4.007012655151317</v>
       </c>
       <c r="I11">
-        <v>340.2488268107841</v>
+        <v>336.2478640172378</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>171.4145280489702</v>
+        <v>151.3338751637297</v>
       </c>
       <c r="C12">
-        <v>2.991353671713377</v>
+        <v>4.401223804718622</v>
       </c>
       <c r="D12">
-        <v>8.213227797363569</v>
+        <v>12.04438294638251</v>
       </c>
       <c r="E12">
-        <v>6.556193096959474</v>
+        <v>9.646225854043637</v>
       </c>
       <c r="F12">
-        <v>1.871197192657861</v>
+        <v>2.702465172322103</v>
       </c>
       <c r="G12">
-        <v>18.37178866662914</v>
+        <v>27.00292968179566</v>
       </c>
       <c r="H12">
-        <v>1.361711259234086</v>
+        <v>2.003506327575658</v>
       </c>
       <c r="I12">
-        <v>210.7799997335277</v>
+        <v>209.1346089505679</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,25 +757,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>121.6244988374067</v>
+        <v>107.3765854820255</v>
       </c>
       <c r="C13">
-        <v>4.487030507570066</v>
+        <v>6.601835707077932</v>
       </c>
       <c r="D13">
-        <v>9.125808663737303</v>
+        <v>13.38264771820279</v>
       </c>
       <c r="E13">
-        <v>4.370795397972984</v>
+        <v>6.430817236029091</v>
       </c>
       <c r="F13">
-        <v>1.969681255429327</v>
+        <v>2.844700181391687</v>
       </c>
       <c r="G13">
-        <v>22.4544083703245</v>
+        <v>33.00358072219468</v>
       </c>
       <c r="I13">
-        <v>164.0322230324409</v>
+        <v>169.6401670469217</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,28 +783,28 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>80.19615392091511</v>
+        <v>70.80143605221056</v>
       </c>
       <c r="C14">
-        <v>4.786165874741403</v>
+        <v>7.041958087549796</v>
       </c>
       <c r="D14">
-        <v>5.475485198242383</v>
+        <v>8.029588630921678</v>
       </c>
       <c r="E14">
-        <v>2.185397698986492</v>
+        <v>3.215408618014545</v>
       </c>
       <c r="F14">
-        <v>2.166649380972259</v>
+        <v>3.129170199530857</v>
       </c>
       <c r="G14">
-        <v>32.66095762956292</v>
+        <v>48.00520832319228</v>
       </c>
       <c r="H14">
-        <v>0.6808556296170428</v>
+        <v>1.001753163787829</v>
       </c>
       <c r="I14">
-        <v>128.1516653330376</v>
+        <v>141.2245230752076</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,28 +812,28 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>61.19232597757027</v>
+        <v>54.0238445706441</v>
       </c>
       <c r="C15">
-        <v>3.589624406056052</v>
+        <v>5.281468565662347</v>
       </c>
       <c r="D15">
-        <v>10.03838953011103</v>
+        <v>14.72091249002307</v>
       </c>
       <c r="E15">
-        <v>2.913863598648655</v>
+        <v>4.287211490686063</v>
       </c>
       <c r="F15">
-        <v>1.674229067114928</v>
+        <v>2.417995154182934</v>
       </c>
       <c r="G15">
-        <v>28.57833792586754</v>
+        <v>42.00455728279323</v>
       </c>
       <c r="H15">
-        <v>1.361711259234086</v>
+        <v>2.003506327575658</v>
       </c>
       <c r="I15">
-        <v>109.3484817646026</v>
+        <v>124.7394958815674</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,28 +841,28 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>55.87125415343376</v>
+        <v>49.32611895580548</v>
       </c>
       <c r="C16">
-        <v>1.346109152271019</v>
+        <v>1.98055071212338</v>
       </c>
       <c r="D16">
-        <v>11.8635512628585</v>
+        <v>17.39744203366364</v>
       </c>
       <c r="E16">
-        <v>2.185397698986492</v>
+        <v>3.215408618014545</v>
       </c>
       <c r="F16">
-        <v>1.57574500434346</v>
+        <v>2.275760145113351</v>
       </c>
       <c r="G16">
-        <v>24.49571822217219</v>
+        <v>36.00390624239419</v>
       </c>
       <c r="H16">
-        <v>0.6808556296170428</v>
+        <v>1.001753163787829</v>
       </c>
       <c r="I16">
-        <v>98.01863112368245</v>
+        <v>111.2009398709024</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -870,28 +870,28 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>112.5026614246012</v>
+        <v>99.32334157087359</v>
       </c>
       <c r="C17">
-        <v>1.944379886613695</v>
+        <v>2.860795473067105</v>
       </c>
       <c r="D17">
-        <v>18.25161732747461</v>
+        <v>26.76529543640558</v>
       </c>
       <c r="E17">
-        <v>2.185397698986492</v>
+        <v>3.215408618014545</v>
       </c>
       <c r="F17">
-        <v>3.643910322544254</v>
+        <v>5.26269533557462</v>
       </c>
       <c r="G17">
-        <v>36.74357733325827</v>
+        <v>54.00585936359131</v>
       </c>
       <c r="H17">
-        <v>2.042566888851129</v>
+        <v>3.005259491363487</v>
       </c>
       <c r="I17">
-        <v>177.3141108823297</v>
+        <v>194.4386552888903</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,28 +899,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>247.8099163812163</v>
+        <v>218.779792919627</v>
       </c>
       <c r="C18">
-        <v>1.196541468685351</v>
+        <v>1.760489521887449</v>
       </c>
       <c r="D18">
-        <v>29.20258772395938</v>
+        <v>42.82447269824893</v>
       </c>
       <c r="E18">
-        <v>34.96636318378387</v>
+        <v>51.44653788823273</v>
       </c>
       <c r="F18">
-        <v>8.371145335574642</v>
+        <v>12.08997577091467</v>
       </c>
       <c r="G18">
-        <v>67.36322511097349</v>
+        <v>99.01074216658409</v>
       </c>
       <c r="H18">
-        <v>2.042566888851129</v>
+        <v>3.005259491363487</v>
       </c>
       <c r="I18">
-        <v>390.9523460930442</v>
+        <v>428.9172704568584</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,28 +928,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>436.3278895791969</v>
+        <v>385.2135004167666</v>
       </c>
       <c r="C19">
-        <v>2.093947570199364</v>
+        <v>3.080856663303035</v>
       </c>
       <c r="D19">
-        <v>53.84227111605008</v>
+        <v>78.95762153739651</v>
       </c>
       <c r="E19">
-        <v>72.11812406655419</v>
+        <v>106.1084843944801</v>
       </c>
       <c r="F19">
-        <v>14.18170503909115</v>
+        <v>20.48184130602014</v>
       </c>
       <c r="G19">
-        <v>120.4372812590132</v>
+        <v>177.0192056917714</v>
       </c>
       <c r="H19">
-        <v>6.808556296170428</v>
+        <v>10.01753163787829</v>
       </c>
       <c r="I19">
-        <v>705.8097749262754</v>
+        <v>780.879041647616</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -957,28 +957,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>591.0190490380237</v>
+        <v>521.7830950767176</v>
       </c>
       <c r="C20">
-        <v>2.243515253785033</v>
+        <v>3.300917853538966</v>
       </c>
       <c r="D20">
-        <v>47.45420505143399</v>
+        <v>69.58976813465456</v>
       </c>
       <c r="E20">
-        <v>62.64806737094608</v>
+        <v>92.17504704975033</v>
       </c>
       <c r="F20">
-        <v>13.78776878800529</v>
+        <v>19.91290126974182</v>
       </c>
       <c r="G20">
-        <v>104.1068024442318</v>
+        <v>153.0166015301753</v>
       </c>
       <c r="H20">
-        <v>6.808556296170428</v>
+        <v>10.01753163787829</v>
       </c>
       <c r="I20">
-        <v>828.0679642425964</v>
+        <v>869.7958625524569</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -986,28 +986,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>468.6343970828831</v>
+        <v>413.7354059354295</v>
       </c>
       <c r="C21">
-        <v>2.393082937370702</v>
+        <v>3.520979043774898</v>
       </c>
       <c r="D21">
-        <v>23.72710252571699</v>
+        <v>34.79488406732728</v>
       </c>
       <c r="E21">
-        <v>26.22477238783789</v>
+        <v>38.58490341617455</v>
       </c>
       <c r="F21">
-        <v>10.8332469048613</v>
+        <v>15.64585099765428</v>
       </c>
       <c r="G21">
-        <v>75.52846451836423</v>
+        <v>111.0120442473821</v>
       </c>
       <c r="H21">
-        <v>2.723422518468171</v>
+        <v>4.007012655151317</v>
       </c>
       <c r="I21">
-        <v>610.0644888755023</v>
+        <v>621.301080362894</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1015,28 +1015,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>554.9117759456683</v>
+        <v>489.9056712617413</v>
       </c>
       <c r="C22">
-        <v>7.478384179283442</v>
+        <v>11.00305951179656</v>
       </c>
       <c r="D22">
-        <v>73.91905017627214</v>
+        <v>108.3994465174427</v>
       </c>
       <c r="E22">
-        <v>26.95323828750006</v>
+        <v>39.6567062888461</v>
       </c>
       <c r="F22">
-        <v>20.48468505646499</v>
+        <v>29.58488188647354</v>
       </c>
       <c r="G22">
-        <v>136.7677600737947</v>
+        <v>201.0218098533676</v>
       </c>
       <c r="H22">
-        <v>2.723422518468171</v>
+        <v>4.007012655151317</v>
       </c>
       <c r="I22">
-        <v>823.2383162374517</v>
+        <v>883.5785879748191</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1044,28 +1044,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>498.6604452333676</v>
+        <v>440.2440004763046</v>
       </c>
       <c r="C23">
-        <v>7.777519546454778</v>
+        <v>11.44318189226842</v>
       </c>
       <c r="D23">
-        <v>60.2303371806662</v>
+        <v>88.32547494013843</v>
       </c>
       <c r="E23">
-        <v>16.75471569222977</v>
+        <v>24.65146607144486</v>
       </c>
       <c r="F23">
-        <v>22.15891412357993</v>
+        <v>32.00287704065648</v>
       </c>
       <c r="G23">
-        <v>104.1068024442318</v>
+        <v>153.0166015301753</v>
       </c>
       <c r="H23">
-        <v>3.404278148085214</v>
+        <v>5.008765818939146</v>
       </c>
       <c r="I23">
-        <v>713.0930123686153</v>
+        <v>754.6923677699272</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1073,28 +1073,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>523.365421559716</v>
+        <v>462.0548694023412</v>
       </c>
       <c r="C24">
-        <v>7.777519546454778</v>
+        <v>11.44318189226842</v>
       </c>
       <c r="D24">
-        <v>53.84227111605008</v>
+        <v>78.95762153739651</v>
       </c>
       <c r="E24">
-        <v>16.0262497925676</v>
+        <v>23.57966319877334</v>
       </c>
       <c r="F24">
-        <v>20.68165318200794</v>
+        <v>29.86935190461272</v>
       </c>
       <c r="G24">
-        <v>91.8589433331457</v>
+        <v>135.0146484089782</v>
       </c>
       <c r="H24">
-        <v>6.808556296170428</v>
+        <v>10.01753163787829</v>
       </c>
       <c r="I24">
-        <v>720.3606148261124</v>
+        <v>750.9368679822486</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1102,28 +1102,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>527.9263402661188</v>
+        <v>466.0814913579172</v>
       </c>
       <c r="C25">
-        <v>5.982707343426754</v>
+        <v>8.802447609437245</v>
       </c>
       <c r="D25">
-        <v>56.58001371517128</v>
+        <v>82.97241585285738</v>
       </c>
       <c r="E25">
-        <v>15.29778389290544</v>
+        <v>22.50786032610182</v>
       </c>
       <c r="F25">
-        <v>16.34835442006341</v>
+        <v>23.61101150555101</v>
       </c>
       <c r="G25">
-        <v>85.73501377760266</v>
+        <v>126.0136718483797</v>
       </c>
       <c r="H25">
-        <v>4.7659894073193</v>
+        <v>7.012272146514803</v>
       </c>
       <c r="I25">
-        <v>712.6362028226077</v>
+        <v>737.0011706467592</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1131,28 +1131,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>543.1294026207946</v>
+        <v>479.5035645431705</v>
       </c>
       <c r="C26">
-        <v>6.43141039418376</v>
+        <v>9.462631180145038</v>
       </c>
       <c r="D26">
-        <v>50.19194765055517</v>
+        <v>73.60456245011534</v>
       </c>
       <c r="E26">
-        <v>8.741590795945967</v>
+        <v>12.86163447205818</v>
       </c>
       <c r="F26">
-        <v>20.87862130755086</v>
+        <v>30.15382192275189</v>
       </c>
       <c r="G26">
-        <v>114.3133517034702</v>
+        <v>168.0182291311729</v>
       </c>
       <c r="H26">
-        <v>5.446845036936343</v>
+        <v>8.014025310302634</v>
       </c>
       <c r="I26">
-        <v>749.1331695094369</v>
+        <v>781.6184690097164</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1160,28 +1160,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>570.1148383003443</v>
+        <v>503.3277444469948</v>
       </c>
       <c r="C27">
-        <v>5.085301241912741</v>
+        <v>7.48208046802166</v>
       </c>
       <c r="D27">
-        <v>70.2687267107773</v>
+        <v>103.0463874301615</v>
       </c>
       <c r="E27">
-        <v>17.48318159189193</v>
+        <v>25.72326894411636</v>
       </c>
       <c r="F27">
-        <v>17.53016317332101</v>
+        <v>25.31783161438602</v>
       </c>
       <c r="G27">
-        <v>44.908816740649</v>
+        <v>66.00716144438935</v>
       </c>
       <c r="H27">
-        <v>4.7659894073193</v>
+        <v>7.012272146514803</v>
       </c>
       <c r="I27">
-        <v>730.1570171662157</v>
+        <v>737.9167464945845</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1189,28 +1189,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>551.8711634747333</v>
+        <v>487.2212566246907</v>
       </c>
       <c r="C28">
-        <v>7.777519546454778</v>
+        <v>11.44318189226842</v>
       </c>
       <c r="D28">
-        <v>69.35614584440353</v>
+        <v>101.7081226583412</v>
       </c>
       <c r="E28">
-        <v>16.0262497925676</v>
+        <v>23.57966319877334</v>
       </c>
       <c r="F28">
-        <v>16.54532254560634</v>
+        <v>23.89548152369018</v>
       </c>
       <c r="G28">
-        <v>91.8589433331457</v>
+        <v>135.0146484089782</v>
       </c>
       <c r="H28">
-        <v>10.89369007387269</v>
+        <v>16.02805062060527</v>
       </c>
       <c r="I28">
-        <v>764.3290346107839</v>
+        <v>798.8904049273474</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1218,28 +1218,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>606.9822645104337</v>
+        <v>535.8762719212339</v>
       </c>
       <c r="C29">
-        <v>6.730545761355097</v>
+        <v>9.902753560616901</v>
       </c>
       <c r="D29">
-        <v>67.53098411165608</v>
+        <v>99.03159311470061</v>
       </c>
       <c r="E29">
-        <v>21.12551109020275</v>
+        <v>31.08228330747395</v>
       </c>
       <c r="F29">
-        <v>16.44683848283487</v>
+        <v>23.7532465146206</v>
       </c>
       <c r="G29">
-        <v>55.11536599988741</v>
+        <v>81.00878904538695</v>
       </c>
       <c r="H29">
-        <v>17.02139074042607</v>
+        <v>25.04382909469574</v>
       </c>
       <c r="I29">
-        <v>790.952900696796</v>
+        <v>805.6987665587287</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1247,28 +1247,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>760.533194292659</v>
+        <v>671.439211092291</v>
       </c>
       <c r="C30">
-        <v>3.290489038884715</v>
+        <v>4.841346185190484</v>
       </c>
       <c r="D30">
-        <v>42.89130071956536</v>
+        <v>62.89844427555311</v>
       </c>
       <c r="E30">
-        <v>34.96636318378387</v>
+        <v>51.44653788823273</v>
       </c>
       <c r="F30">
-        <v>14.28018910186262</v>
+        <v>20.62407631508973</v>
       </c>
       <c r="G30">
-        <v>42.86750688880133</v>
+        <v>63.00683592418987</v>
       </c>
       <c r="H30">
-        <v>8.851123185021557</v>
+        <v>13.02279112924177</v>
       </c>
       <c r="I30">
-        <v>907.6801664105786</v>
+        <v>887.2792428097886</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1276,28 +1276,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>791.319395560878</v>
+        <v>698.6189092924285</v>
       </c>
       <c r="C31">
-        <v>4.337462823984396</v>
+        <v>6.381774516842002</v>
       </c>
       <c r="D31">
-        <v>53.84227111605008</v>
+        <v>78.95762153739651</v>
       </c>
       <c r="E31">
-        <v>50.99261297635146</v>
+        <v>75.02620108700609</v>
       </c>
       <c r="F31">
-        <v>10.93173096763276</v>
+        <v>15.78808600672387</v>
       </c>
       <c r="G31">
-        <v>38.78488718510597</v>
+        <v>57.00618488379083</v>
       </c>
       <c r="H31">
-        <v>2.723422518468171</v>
+        <v>4.007012655151317</v>
       </c>
       <c r="I31">
-        <v>952.9317831484708</v>
+        <v>935.7857899793391</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1305,28 +1305,28 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>625.986092453778</v>
+        <v>552.6538634028003</v>
       </c>
       <c r="C32">
-        <v>3.140921355299045</v>
+        <v>4.621284994954554</v>
       </c>
       <c r="D32">
-        <v>45.62904331868653</v>
+        <v>66.91323859101396</v>
       </c>
       <c r="E32">
-        <v>34.23789728412169</v>
+        <v>50.37473501556123</v>
       </c>
       <c r="F32">
-        <v>7.681756896174374</v>
+        <v>11.09433070742758</v>
       </c>
       <c r="G32">
-        <v>30.61964777771524</v>
+        <v>45.00488280299277</v>
       </c>
       <c r="H32">
-        <v>6.127700666553386</v>
+        <v>9.01577847409046</v>
       </c>
       <c r="I32">
-        <v>753.4230597523284</v>
+        <v>739.6781139888408</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1334,28 +1334,28 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>524.1255746774498</v>
+        <v>462.7259730616036</v>
       </c>
       <c r="C33">
-        <v>4.487030507570066</v>
+        <v>6.601835707077932</v>
       </c>
       <c r="D33">
-        <v>35.59065378857549</v>
+        <v>52.1923261009909</v>
       </c>
       <c r="E33">
-        <v>46.62181757837848</v>
+        <v>68.595383850977</v>
       </c>
       <c r="F33">
-        <v>4.924203138573316</v>
+        <v>7.111750453479218</v>
       </c>
       <c r="G33">
-        <v>32.66095762956292</v>
+        <v>48.00520832319228</v>
       </c>
       <c r="H33">
-        <v>0.6808556296170428</v>
+        <v>1.001753163787829</v>
       </c>
       <c r="I33">
-        <v>649.091092949727</v>
+        <v>646.2342306611087</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1363,28 +1363,28 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>430.6267411961933</v>
+        <v>380.1802229722965</v>
       </c>
       <c r="C34">
-        <v>2.991353671713377</v>
+        <v>4.401223804718622</v>
       </c>
       <c r="D34">
-        <v>23.72710252571699</v>
+        <v>34.79488406732728</v>
       </c>
       <c r="E34">
-        <v>22.58244288952708</v>
+        <v>33.22588905281697</v>
       </c>
       <c r="F34">
-        <v>3.15149000868692</v>
+        <v>4.551520290226702</v>
       </c>
       <c r="G34">
-        <v>16.33047881478146</v>
+        <v>24.00260416159614</v>
       </c>
       <c r="H34">
-        <v>2.723422518468171</v>
+        <v>4.007012655151317</v>
       </c>
       <c r="I34">
-        <v>502.1330316250874</v>
+        <v>485.1633570041334</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1392,28 +1392,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>304.4413236523838</v>
+        <v>268.7770155346953</v>
       </c>
       <c r="C35">
-        <v>2.841785988127709</v>
+        <v>4.181162614482692</v>
       </c>
       <c r="D35">
-        <v>22.81452165934327</v>
+        <v>33.45661929550698</v>
       </c>
       <c r="E35">
-        <v>12.38392029425678</v>
+        <v>18.22064883541576</v>
       </c>
       <c r="F35">
-        <v>2.363617506515192</v>
+        <v>3.413640217670024</v>
       </c>
       <c r="G35">
-        <v>26.53702807401987</v>
+        <v>39.00423176259372</v>
       </c>
       <c r="H35">
-        <v>0.6808556296170428</v>
+        <v>1.001753163787829</v>
       </c>
       <c r="I35">
-        <v>372.0630528042636</v>
+        <v>368.0550714241523</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1421,28 +1421,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>191.5585856689157</v>
+        <v>169.1181221341903</v>
       </c>
       <c r="C36">
-        <v>5.234868925498409</v>
+        <v>7.702141658257591</v>
       </c>
       <c r="D36">
-        <v>9.125808663737303</v>
+        <v>13.38264771820279</v>
       </c>
       <c r="E36">
-        <v>6.556193096959474</v>
+        <v>9.646225854043637</v>
       </c>
       <c r="F36">
-        <v>1.969681255429327</v>
+        <v>2.844700181391687</v>
       </c>
       <c r="G36">
-        <v>18.37178866662914</v>
+        <v>27.00292968179566</v>
       </c>
       <c r="H36">
-        <v>0.6808556296170428</v>
+        <v>1.001753163787829</v>
       </c>
       <c r="I36">
-        <v>233.4977819067863</v>
+        <v>230.6985203916695</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1450,28 +1450,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>145.5693220460211</v>
+        <v>128.5163507487992</v>
       </c>
       <c r="C37">
-        <v>6.28184271059809</v>
+        <v>9.242569989909109</v>
       </c>
       <c r="D37">
-        <v>9.125808663737303</v>
+        <v>13.38264771820279</v>
       </c>
       <c r="E37">
-        <v>2.913863598648655</v>
+        <v>4.287211490686063</v>
       </c>
       <c r="F37">
-        <v>1.674229067114928</v>
+        <v>2.417995154182934</v>
       </c>
       <c r="G37">
-        <v>20.41309851847682</v>
+        <v>30.00325520199517</v>
       </c>
       <c r="H37">
-        <v>2.723422518468171</v>
+        <v>4.007012655151317</v>
       </c>
       <c r="I37">
-        <v>188.7015871230651</v>
+        <v>191.8570429589266</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1479,28 +1479,28 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>81.71646015638269</v>
+        <v>72.14364337073587</v>
       </c>
       <c r="C38">
-        <v>4.337462823984396</v>
+        <v>6.381774516842002</v>
       </c>
       <c r="D38">
-        <v>7.300646930989844</v>
+        <v>10.70611817456223</v>
       </c>
       <c r="E38">
-        <v>1.456931799324327</v>
+        <v>2.143605745343031</v>
       </c>
       <c r="F38">
-        <v>1.969681255429327</v>
+        <v>2.844700181391687</v>
       </c>
       <c r="G38">
-        <v>20.41309851847682</v>
+        <v>30.00325520199517</v>
       </c>
       <c r="H38">
-        <v>1.361711259234086</v>
+        <v>2.003506327575658</v>
       </c>
       <c r="I38">
-        <v>118.5559927438215</v>
+        <v>126.2266035184457</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1508,28 +1508,28 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>54.73102447683303</v>
+        <v>48.31946346691148</v>
       </c>
       <c r="C39">
-        <v>3.140921355299045</v>
+        <v>4.621284994954554</v>
       </c>
       <c r="D39">
-        <v>10.95097039648477</v>
+        <v>16.05917726184336</v>
       </c>
       <c r="E39">
-        <v>0.7284658996621637</v>
+        <v>1.071802872671516</v>
       </c>
       <c r="F39">
-        <v>1.871197192657861</v>
+        <v>2.702465172322103</v>
       </c>
       <c r="G39">
-        <v>20.41309851847682</v>
+        <v>30.00325520199517</v>
       </c>
       <c r="H39">
-        <v>0.6808556296170428</v>
+        <v>1.001753163787829</v>
       </c>
       <c r="I39">
-        <v>92.51653346903073</v>
+        <v>103.779202134486</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1537,28 +1537,28 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>55.11110103569995</v>
+        <v>48.65501529654281</v>
       </c>
       <c r="C40">
-        <v>1.645244519442357</v>
+        <v>2.420673092595242</v>
       </c>
       <c r="D40">
-        <v>10.03838953011103</v>
+        <v>14.72091249002307</v>
       </c>
       <c r="E40">
-        <v>2.185397698986492</v>
+        <v>3.215408618014545</v>
       </c>
       <c r="F40">
-        <v>2.068165318200793</v>
+        <v>2.986935190461273</v>
       </c>
       <c r="G40">
-        <v>26.53702807401987</v>
+        <v>39.00423176259372</v>
       </c>
       <c r="H40">
-        <v>1.361711259234086</v>
+        <v>2.003506327575658</v>
       </c>
       <c r="I40">
-        <v>98.94703743569457</v>
+        <v>113.0066827778063</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1566,28 +1566,28 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>103.0007474529288</v>
+        <v>90.93454583009037</v>
       </c>
       <c r="C41">
-        <v>1.645244519442357</v>
+        <v>2.420673092595242</v>
       </c>
       <c r="D41">
-        <v>12.77613212923223</v>
+        <v>18.73570680548391</v>
       </c>
       <c r="E41">
-        <v>3.642329498310818</v>
+        <v>5.359014363357579</v>
       </c>
       <c r="F41">
-        <v>5.022687201344782</v>
+        <v>7.253985462548802</v>
       </c>
       <c r="G41">
-        <v>40.82619703695364</v>
+        <v>60.00651040399034</v>
       </c>
       <c r="H41">
-        <v>0.6808556296170428</v>
+        <v>1.001753163787829</v>
       </c>
       <c r="I41">
-        <v>167.5941934678297</v>
+        <v>185.7121891218541</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1595,28 +1595,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>267.5738974422948</v>
+        <v>236.2284880604561</v>
       </c>
       <c r="C42">
-        <v>1.645244519442357</v>
+        <v>2.420673092595242</v>
       </c>
       <c r="D42">
-        <v>23.72710252571699</v>
+        <v>34.79488406732728</v>
       </c>
       <c r="E42">
-        <v>30.59556778581088</v>
+        <v>45.01572065220365</v>
       </c>
       <c r="F42">
-        <v>9.946890339918101</v>
+        <v>14.36573591602802</v>
       </c>
       <c r="G42">
-        <v>75.52846451836423</v>
+        <v>111.0120442473821</v>
       </c>
       <c r="H42">
-        <v>5.446845036936343</v>
+        <v>8.014025310302634</v>
       </c>
       <c r="I42">
-        <v>414.4640121684837</v>
+        <v>451.851571346295</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1624,28 +1624,28 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>398.3202336925071</v>
+        <v>351.6583174536336</v>
       </c>
       <c r="C43">
-        <v>0.7478384179283443</v>
+        <v>1.100305951179656</v>
       </c>
       <c r="D43">
-        <v>33.76549205582804</v>
+        <v>49.51579655735031</v>
       </c>
       <c r="E43">
-        <v>59.73420377229741</v>
+        <v>87.88783555906427</v>
       </c>
       <c r="F43">
-        <v>12.11353972089036</v>
+        <v>17.49490611555887</v>
       </c>
       <c r="G43">
-        <v>151.0569290367285</v>
+        <v>222.0240884947642</v>
       </c>
       <c r="H43">
-        <v>6.127700666553386</v>
+        <v>9.01577847409046</v>
       </c>
       <c r="I43">
-        <v>661.8659373627331</v>
+        <v>738.6970286056414</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1653,28 +1653,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>637.7684657786517</v>
+        <v>563.0559701213715</v>
       </c>
       <c r="C44">
-        <v>2.54265062095637</v>
+        <v>3.74104023401083</v>
       </c>
       <c r="D44">
-        <v>42.89130071956536</v>
+        <v>62.89844427555311</v>
       </c>
       <c r="E44">
-        <v>67.01886276891908</v>
+        <v>98.60586428577943</v>
       </c>
       <c r="F44">
-        <v>14.37867316463409</v>
+        <v>20.76631132415931</v>
       </c>
       <c r="G44">
-        <v>110.2307319997748</v>
+        <v>162.0175780907739</v>
       </c>
       <c r="H44">
-        <v>12.25540133310677</v>
+        <v>18.03155694818092</v>
       </c>
       <c r="I44">
-        <v>887.0860863856082</v>
+        <v>929.1167652798289</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1682,28 +1682,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>647.2703797503244</v>
+        <v>571.4447658621546</v>
       </c>
       <c r="C45">
-        <v>5.234868925498409</v>
+        <v>7.702141658257591</v>
       </c>
       <c r="D45">
-        <v>52.01710938330263</v>
+        <v>76.28109199375594</v>
       </c>
       <c r="E45">
-        <v>34.96636318378387</v>
+        <v>51.44653788823273</v>
       </c>
       <c r="F45">
-        <v>16.44683848283487</v>
+        <v>23.7532465146206</v>
       </c>
       <c r="G45">
-        <v>124.5199009627086</v>
+        <v>183.0198567321705</v>
       </c>
       <c r="H45">
-        <v>5.446845036936343</v>
+        <v>8.014025310302634</v>
       </c>
       <c r="I45">
-        <v>885.9023057253892</v>
+        <v>921.6616659594945</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1711,28 +1711,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>555.6719290634024</v>
+        <v>490.5767749210041</v>
       </c>
       <c r="C46">
-        <v>8.076654913626117</v>
+        <v>11.88330427274028</v>
       </c>
       <c r="D46">
-        <v>80.30711624088828</v>
+        <v>117.7672999201846</v>
       </c>
       <c r="E46">
-        <v>32.0524995851352</v>
+        <v>47.15932639754667</v>
       </c>
       <c r="F46">
-        <v>18.02258348717834</v>
+        <v>26.02900665973393</v>
       </c>
       <c r="G46">
-        <v>132.6851403700994</v>
+        <v>195.0211588129685</v>
       </c>
       <c r="H46">
-        <v>5.446845036936343</v>
+        <v>8.014025310302634</v>
       </c>
       <c r="I46">
-        <v>832.2627686972662</v>
+        <v>896.4508962944808</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1740,28 +1740,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>413.523296047183</v>
+        <v>365.0803906388869</v>
       </c>
       <c r="C47">
-        <v>6.132275027012424</v>
+        <v>9.022508799673176</v>
       </c>
       <c r="D47">
-        <v>46.54162418506024</v>
+        <v>68.25150336283426</v>
       </c>
       <c r="E47">
-        <v>13.84085209358111</v>
+        <v>20.36425458075879</v>
       </c>
       <c r="F47">
-        <v>15.95441816897755</v>
+        <v>23.04207146927267</v>
       </c>
       <c r="G47">
-        <v>89.817633481298</v>
+        <v>132.0143228887787</v>
       </c>
       <c r="H47">
-        <v>3.404278148085214</v>
+        <v>5.008765818939146</v>
       </c>
       <c r="I47">
-        <v>589.2143771511976</v>
+        <v>622.7838175591437</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1769,28 +1769,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>434.0474302259956</v>
+        <v>383.2001894389786</v>
       </c>
       <c r="C48">
-        <v>6.132275027012424</v>
+        <v>9.022508799673176</v>
       </c>
       <c r="D48">
-        <v>41.06613898681788</v>
+        <v>60.22191473191254</v>
       </c>
       <c r="E48">
-        <v>13.84085209358111</v>
+        <v>20.36425458075879</v>
       </c>
       <c r="F48">
-        <v>14.96957754126289</v>
+        <v>21.61972137857682</v>
       </c>
       <c r="G48">
-        <v>79.6110842220596</v>
+        <v>117.0126952877812</v>
       </c>
       <c r="H48">
-        <v>6.808556296170428</v>
+        <v>10.01753163787829</v>
       </c>
       <c r="I48">
-        <v>596.4759143928999</v>
+        <v>621.4588158555594</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1798,28 +1798,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>437.8481958146643</v>
+        <v>386.5557077352918</v>
       </c>
       <c r="C49">
-        <v>4.786165874741403</v>
+        <v>7.041958087549796</v>
       </c>
       <c r="D49">
-        <v>43.80388158593907</v>
+        <v>64.23670904737342</v>
       </c>
       <c r="E49">
-        <v>13.11238619391895</v>
+        <v>19.29245170808727</v>
       </c>
       <c r="F49">
-        <v>11.81808753257596</v>
+        <v>17.06820108835013</v>
       </c>
       <c r="G49">
-        <v>73.48715466651655</v>
+        <v>108.0117187271826</v>
       </c>
       <c r="H49">
-        <v>4.7659894073193</v>
+        <v>7.012272146514803</v>
       </c>
       <c r="I49">
-        <v>589.6218610756756</v>
+        <v>609.2190185403499</v>
       </c>
     </row>
   </sheetData>
